--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA22115-ED2C-4BF9-89EA-66905DA2C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA659ED7-53C4-4BA1-BAA9-ADCECD8625C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="823" xr2:uid="{9DA7FCEA-5A1C-4F4D-B571-DEE990F477EE}"/>
   </bookViews>
@@ -35,9 +35,9 @@
     <sheet name="CCaMC-BSCpUC" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="cpi_2019_to_2012">About!$A$90</definedName>
+    <definedName name="cpi_2019_to_2012">About!$A$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="100">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -385,6 +385,27 @@
   <si>
     <t>Fixed O&amp;M (USD/MW-yr)</t>
     <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Costs</t>
+  </si>
+  <si>
+    <t>United States EPS version 3.3.1</t>
+  </si>
+  <si>
+    <t>elec/CCaMC</t>
+  </si>
+  <si>
+    <t>For several plant types, we use US costs directly due to limited data availability (highlighted in yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the KRW tab. </t>
+  </si>
+  <si>
+    <t>We were not able to identify soft cost data for renewable technologies, and therefore use the ratio</t>
+  </si>
+  <si>
+    <t>of hard costs to soft costs from the US model.</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1101,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1149,6 +1170,8 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="228" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="229">
     <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1771,16 +1794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="78.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
@@ -1879,7 +1902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="2:4">
       <c r="B18" s="11" t="s">
         <v>89</v>
       </c>
@@ -1887,108 +1910,84 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="2:4">
       <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="2:4">
       <c r="B20" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="2:4">
       <c r="B21" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="2:4">
       <c r="B24" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="2:4">
       <c r="B25" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="2:4">
       <c r="B26" s="2">
         <v>2018</v>
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="2:4">
       <c r="B27" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="2:4">
       <c r="B29" s="13"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="13"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="28">
-        <v>1179.9000000000001</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11">
       <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2009,6 +2008,9 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11">
+      <c r="A36" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2019,6 +2021,9 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11">
+      <c r="A37" s="28">
+        <v>1179.9000000000001</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2039,6 +2044,9 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2049,6 +2057,9 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2059,6 +2070,9 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2069,6 +2083,9 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -2379,6 +2396,7 @@
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="4:11">
+      <c r="D73" s="6"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -2388,6 +2406,7 @@
       <c r="K73" s="10"/>
     </row>
     <row r="74" spans="4:11">
+      <c r="D74" s="6"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -2397,6 +2416,7 @@
       <c r="K74" s="10"/>
     </row>
     <row r="75" spans="4:11">
+      <c r="D75" s="6"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -2406,6 +2426,7 @@
       <c r="K75" s="10"/>
     </row>
     <row r="76" spans="4:11">
+      <c r="D76" s="6"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -2450,7 +2471,7 @@
       <c r="J80" s="10"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="4:11">
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -2459,7 +2480,7 @@
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="4:11">
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -2468,7 +2489,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="4:11">
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -2477,7 +2498,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="4:11">
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -2486,8 +2507,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11">
-      <c r="D85" s="6"/>
+    <row r="85" spans="4:11">
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -2496,8 +2516,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11">
-      <c r="D86" s="6"/>
+    <row r="86" spans="4:11">
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -2506,8 +2525,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11">
-      <c r="D87" s="6"/>
+    <row r="87" spans="4:11">
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -2516,8 +2534,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11">
-      <c r="D88" s="6"/>
+    <row r="88" spans="4:11">
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -2526,7 +2543,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="4:11">
       <c r="D89" s="6"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
@@ -2536,7 +2553,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="4:11">
       <c r="D90" s="6"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
@@ -2546,7 +2563,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="4:11">
       <c r="D91" s="6"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -2556,7 +2573,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="4:11">
       <c r="D92" s="6"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
@@ -2566,7 +2583,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="4:11">
       <c r="D93" s="6"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
@@ -2576,8 +2593,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11">
-      <c r="B94" s="8"/>
+    <row r="94" spans="4:11">
       <c r="D94" s="6"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
@@ -2587,8 +2603,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11">
-      <c r="B95" s="8"/>
+    <row r="95" spans="4:11">
       <c r="D95" s="6"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -2598,9 +2613,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="9"/>
-      <c r="B96" s="8"/>
+    <row r="96" spans="4:11">
       <c r="D96" s="6"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -2611,8 +2624,6 @@
       <c r="K96" s="10"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="9"/>
-      <c r="B97" s="8"/>
       <c r="D97" s="6"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
@@ -2623,7 +2634,6 @@
       <c r="K97" s="10"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="9"/>
       <c r="B98" s="8"/>
       <c r="D98" s="6"/>
       <c r="E98" s="10"/>
@@ -2635,7 +2645,6 @@
       <c r="K98" s="10"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="9"/>
       <c r="B99" s="8"/>
       <c r="D99" s="6"/>
       <c r="E99" s="10"/>
@@ -2661,6 +2670,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="9"/>
       <c r="B101" s="8"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -2672,6 +2682,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="9"/>
       <c r="B102" s="8"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
@@ -2683,6 +2694,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="9"/>
       <c r="B103" s="8"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -2694,6 +2706,7 @@
     <row r="104" spans="1:11">
       <c r="A104" s="9"/>
       <c r="B104" s="8"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -2725,7 +2738,7 @@
       <c r="K106" s="10"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="6"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="8"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -2734,6 +2747,50 @@
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="9"/>
+      <c r="B108" s="8"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="6"/>
+      <c r="B111" s="8"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
@@ -23844,7 +23901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -24018,7 +24075,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="30">
-        <f>8208*About!A33</f>
+        <f>8208*About!A37</f>
         <v>9684619.2000000011</v>
       </c>
       <c r="C11" s="30"/>
@@ -24085,7 +24142,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="30">
-        <f>3641*About!A33</f>
+        <f>3641*About!A37</f>
         <v>4296015.9000000004</v>
       </c>
       <c r="C15" s="30"/>
@@ -24706,8 +24763,8 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25222,206 +25279,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:33" s="17" customFormat="1">
+      <c r="A6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="43">
+        <f>'CCaMC-BSCpUC US'!B6/'CCaMC-BCCpUC US'!B6*'CCaMC-BCCpUC'!B6</f>
+        <v>427561.65776760585</v>
+      </c>
+      <c r="C6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!C6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>399057.54724976857</v>
+      </c>
+      <c r="D6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!D6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>370553.43673192355</v>
+      </c>
+      <c r="E6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!E6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>342049.32621408621</v>
+      </c>
+      <c r="F6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!F6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>313545.2156962413</v>
+      </c>
+      <c r="G6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!G6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>285041.1051784039</v>
+      </c>
+      <c r="H6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!H6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>256536.99466056656</v>
+      </c>
+      <c r="I6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!I6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>235158.91177218282</v>
+      </c>
+      <c r="J6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!J6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>213780.82888380674</v>
+      </c>
+      <c r="K6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!K6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>192402.74599542306</v>
+      </c>
+      <c r="L6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!L6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>171024.66310704689</v>
+      </c>
+      <c r="M6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!M6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>149646.58021866318</v>
+      </c>
+      <c r="N6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!N6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>145370.96364098569</v>
+      </c>
+      <c r="O6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!O6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>141095.34706331007</v>
+      </c>
+      <c r="P6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!P6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>136819.73048563447</v>
+      </c>
+      <c r="Q6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!Q6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>132544.11390795698</v>
+      </c>
+      <c r="R6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!R6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>128268.49733028139</v>
+      </c>
+      <c r="S6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!S6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>123992.88075260578</v>
+      </c>
+      <c r="T6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!T6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>119717.26417493017</v>
+      </c>
+      <c r="U6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!U6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>115441.64759725267</v>
+      </c>
+      <c r="V6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!V6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>111166.03101957707</v>
+      </c>
+      <c r="W6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!W6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>106890.41444190146</v>
+      </c>
+      <c r="X6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!X6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>102614.79786422587</v>
+      </c>
+      <c r="Y6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!Y6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>98339.181286548366</v>
+      </c>
+      <c r="Z6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!Z6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>94063.564708872771</v>
+      </c>
+      <c r="AA6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AA6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>89787.948131197161</v>
+      </c>
+      <c r="AB6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AB6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>85512.331553521552</v>
+      </c>
+      <c r="AC6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AC6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>81236.714975844065</v>
+      </c>
+      <c r="AD6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AD6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>76961.098398168455</v>
+      </c>
+      <c r="AE6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AE6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>72685.481820492845</v>
+      </c>
+      <c r="AF6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AF6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>68409.865242817235</v>
+      </c>
+      <c r="AG6" s="23">
+        <f>$B6*'CCaMC-BSCpUC US'!AG6/'CCaMC-BSCpUC US'!$B6</f>
+        <v>64134.24866514164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="17" customFormat="1">
+      <c r="A7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>0</v>
+      <c r="B7" s="43">
+        <f>'CCaMC-BSCpUC US'!B7/'CCaMC-BCCpUC US'!B7*'CCaMC-BCCpUC'!B7</f>
+        <v>370817.86592084222</v>
+      </c>
+      <c r="C7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!C7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>357574.37070938625</v>
+      </c>
+      <c r="D7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!D7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>344330.87549792556</v>
+      </c>
+      <c r="E7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!E7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>331087.38028646959</v>
+      </c>
+      <c r="F7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!F7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>309014.88826736854</v>
+      </c>
+      <c r="G7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!G7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>286942.3962482721</v>
+      </c>
+      <c r="H7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!H7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>264869.90422917571</v>
+      </c>
+      <c r="I7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!I7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>243680.31189082545</v>
+      </c>
+      <c r="J7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!J7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>222490.719552494</v>
+      </c>
+      <c r="K7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!K7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>201301.12721416264</v>
+      </c>
+      <c r="L7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!L7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>180111.53487583119</v>
+      </c>
+      <c r="M7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!M7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253749037</v>
+      </c>
+      <c r="N7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!N7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="O7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!O7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="P7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!P7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="Q7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!Q7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="R7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!R7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="S7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!S7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="T7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!T7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="U7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!U7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="V7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!V7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="W7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!W7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="X7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!X7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!Y7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!Z7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AA7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AB7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AB7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AC7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AC7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AD7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AD7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AE7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AE7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AF7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AF7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
+      </c>
+      <c r="AG7" s="23">
+        <f>$B7*'CCaMC-BSCpUC US'!AG7/'CCaMC-BSCpUC US'!$B7</f>
+        <v>158921.94253750317</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -26030,105 +26151,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:33" s="17" customFormat="1">
+      <c r="A14" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
-        <v>0</v>
-      </c>
-      <c r="W14" s="18">
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="18">
-        <v>0</v>
+      <c r="B14" s="43">
+        <f>'CCaMC-BSCpUC US'!B14/'CCaMC-BCCpUC US'!B14*'CCaMC-BCCpUC'!B14</f>
+        <v>451483.99999999558</v>
+      </c>
+      <c r="C14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!C14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>436919.99999999721</v>
+      </c>
+      <c r="D14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!D14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>422355.99999999878</v>
+      </c>
+      <c r="E14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!E14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>407791.99999999395</v>
+      </c>
+      <c r="F14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!F14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>393227.99999999558</v>
+      </c>
+      <c r="G14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!G14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>378663.99999999715</v>
+      </c>
+      <c r="H14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!H14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364099.99999999878</v>
+      </c>
+      <c r="I14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!I14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="J14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!J14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="K14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!K14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="L14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!L14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="M14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!M14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="N14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!N14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="O14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!O14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="P14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!P14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!Q14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="R14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!R14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="S14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!S14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="T14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!T14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="U14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!U14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="V14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!V14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="W14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!W14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="X14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!X14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="Y14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!Y14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="Z14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!Z14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AA14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AA14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AB14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AB14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AC14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AC14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AD14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AD14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AE14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AE14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AF14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AF14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
+      </c>
+      <c r="AG14" s="23">
+        <f>$B14*'CCaMC-BSCpUC US'!AG14/'CCaMC-BSCpUC US'!$B14</f>
+        <v>364100</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -33085,127 +33238,127 @@
         <v>19</v>
       </c>
       <c r="B57" s="33">
-        <f>B3/About!$A$33*1000</f>
+        <f>B3/About!$A$37*1000</f>
         <v>1219138.0625476735</v>
       </c>
       <c r="C57" s="33">
-        <f>C3/About!$A$33*1000</f>
+        <f>C3/About!$A$37*1000</f>
         <v>1263547.7582846005</v>
       </c>
       <c r="D57" s="33">
-        <f>D3/About!$A$33*1000</f>
+        <f>D3/About!$A$37*1000</f>
         <v>1307957.4540215272</v>
       </c>
       <c r="E57" s="33">
-        <f>E3/About!$A$33*1000</f>
+        <f>E3/About!$A$37*1000</f>
         <v>1352367.1497584539</v>
       </c>
       <c r="F57" s="33">
-        <f>F3/About!$A$33*1000</f>
+        <f>F3/About!$A$37*1000</f>
         <v>1396776.8454953809</v>
       </c>
       <c r="G57" s="33">
-        <f>G3/About!$A$33*1000</f>
+        <f>G3/About!$A$37*1000</f>
         <v>1441186.5412323077</v>
       </c>
       <c r="H57" s="33">
-        <f>H3/About!$A$33*1000</f>
+        <f>H3/About!$A$37*1000</f>
         <v>1485596.2369692344</v>
       </c>
       <c r="I57" s="33">
-        <f>I3/About!$A$33*1000</f>
+        <f>I3/About!$A$37*1000</f>
         <v>1530005.9327061614</v>
       </c>
       <c r="J57" s="33">
-        <f>J3/About!$A$33*1000</f>
+        <f>J3/About!$A$37*1000</f>
         <v>1574415.6284430884</v>
       </c>
       <c r="K57" s="33">
-        <f>K3/About!$A$33*1000</f>
+        <f>K3/About!$A$37*1000</f>
         <v>1618825.3241800151</v>
       </c>
       <c r="L57" s="33">
-        <f>L3/About!$A$33*1000</f>
+        <f>L3/About!$A$37*1000</f>
         <v>1663235.0199169421</v>
       </c>
       <c r="M57" s="33">
-        <f>M3/About!$A$33*1000</f>
+        <f>M3/About!$A$37*1000</f>
         <v>1707644.7156538689</v>
       </c>
       <c r="N57" s="33">
-        <f>N3/About!$A$33*1000</f>
+        <f>N3/About!$A$37*1000</f>
         <v>1752054.4113907956</v>
       </c>
       <c r="O57" s="33">
-        <f>O3/About!$A$33*1000</f>
+        <f>O3/About!$A$37*1000</f>
         <v>1796464.1071277226</v>
       </c>
       <c r="P57" s="33">
-        <f>P3/About!$A$33*1000</f>
+        <f>P3/About!$A$37*1000</f>
         <v>1840873.8028646493</v>
       </c>
       <c r="Q57" s="33">
-        <f>Q3/About!$A$33*1000</f>
+        <f>Q3/About!$A$37*1000</f>
         <v>1885283.4986015761</v>
       </c>
       <c r="R57" s="33">
-        <f>R3/About!$A$33*1000</f>
+        <f>R3/About!$A$37*1000</f>
         <v>1929693.1943385033</v>
       </c>
       <c r="S57" s="33">
-        <f>S3/About!$A$33*1000</f>
+        <f>S3/About!$A$37*1000</f>
         <v>1974102.89007543</v>
       </c>
       <c r="T57" s="33">
-        <f>T3/About!$A$33*1000</f>
+        <f>T3/About!$A$37*1000</f>
         <v>2018512.5858123568</v>
       </c>
       <c r="U57" s="33">
-        <f>U3/About!$A$33*1000</f>
+        <f>U3/About!$A$37*1000</f>
         <v>2062922.2815492835</v>
       </c>
       <c r="V57" s="33">
-        <f>V3/About!$A$33*1000</f>
+        <f>V3/About!$A$37*1000</f>
         <v>2107331.9772862107</v>
       </c>
       <c r="W57" s="33">
-        <f>W3/About!$A$33*1000</f>
+        <f>W3/About!$A$37*1000</f>
         <v>2151741.6730231377</v>
       </c>
       <c r="X57" s="33">
-        <f>X3/About!$A$33*1000</f>
+        <f>X3/About!$A$37*1000</f>
         <v>2196151.3687600642</v>
       </c>
       <c r="Y57" s="33">
-        <f>Y3/About!$A$33*1000</f>
+        <f>Y3/About!$A$37*1000</f>
         <v>2240561.0644969912</v>
       </c>
       <c r="Z57" s="33">
-        <f>Z3/About!$A$33*1000</f>
+        <f>Z3/About!$A$37*1000</f>
         <v>2284970.7602339182</v>
       </c>
       <c r="AA57" s="33">
-        <f>AA3/About!$A$33*1000</f>
+        <f>AA3/About!$A$37*1000</f>
         <v>2329380.4559708447</v>
       </c>
       <c r="AB57" s="33">
-        <f>AB3/About!$A$33*1000</f>
+        <f>AB3/About!$A$37*1000</f>
         <v>2373790.1517077717</v>
       </c>
       <c r="AC57" s="33">
-        <f>AC3/About!$A$33*1000</f>
+        <f>AC3/About!$A$37*1000</f>
         <v>2418199.8474446987</v>
       </c>
       <c r="AD57" s="33">
-        <f>AD3/About!$A$33*1000</f>
+        <f>AD3/About!$A$37*1000</f>
         <v>2462609.5431816252</v>
       </c>
       <c r="AE57" s="33">
-        <f>AE3/About!$A$33*1000</f>
+        <f>AE3/About!$A$37*1000</f>
         <v>2507019.2389185522</v>
       </c>
       <c r="AF57" s="33">
-        <f>AF3/About!$A$33*1000</f>
+        <f>AF3/About!$A$37*1000</f>
         <v>2551428.9346554792</v>
       </c>
     </row>
@@ -33214,127 +33367,127 @@
         <v>14</v>
       </c>
       <c r="B58" s="33">
-        <f>B4/About!$A$33*1000</f>
+        <f>B4/About!$A$37*1000</f>
         <v>796575.1334858886</v>
       </c>
       <c r="C58" s="33">
-        <f>C4/About!$A$33*1000</f>
+        <f>C4/About!$A$37*1000</f>
         <v>803779.13382490037</v>
       </c>
       <c r="D58" s="33">
-        <f>D4/About!$A$33*1000</f>
+        <f>D4/About!$A$37*1000</f>
         <v>810983.13416391215</v>
       </c>
       <c r="E58" s="33">
-        <f>E4/About!$A$33*1000</f>
+        <f>E4/About!$A$37*1000</f>
         <v>818187.13450292381</v>
       </c>
       <c r="F58" s="33">
-        <f>F4/About!$A$33*1000</f>
+        <f>F4/About!$A$37*1000</f>
         <v>825391.13484193571</v>
       </c>
       <c r="G58" s="33">
-        <f>G4/About!$A$33*1000</f>
+        <f>G4/About!$A$37*1000</f>
         <v>832595.13518094749</v>
       </c>
       <c r="H58" s="33">
-        <f>H4/About!$A$33*1000</f>
+        <f>H4/About!$A$37*1000</f>
         <v>839799.13551995927</v>
       </c>
       <c r="I58" s="33">
-        <f>I4/About!$A$33*1000</f>
+        <f>I4/About!$A$37*1000</f>
         <v>847003.13585897104</v>
       </c>
       <c r="J58" s="33">
-        <f>J4/About!$A$33*1000</f>
+        <f>J4/About!$A$37*1000</f>
         <v>854207.13619798282</v>
       </c>
       <c r="K58" s="33">
-        <f>K4/About!$A$33*1000</f>
+        <f>K4/About!$A$37*1000</f>
         <v>861411.1365369946</v>
       </c>
       <c r="L58" s="33">
-        <f>L4/About!$A$33*1000</f>
+        <f>L4/About!$A$37*1000</f>
         <v>868615.13687600626</v>
       </c>
       <c r="M58" s="33">
-        <f>M4/About!$A$33*1000</f>
+        <f>M4/About!$A$37*1000</f>
         <v>875819.13721501816</v>
       </c>
       <c r="N58" s="33">
-        <f>N4/About!$A$33*1000</f>
+        <f>N4/About!$A$37*1000</f>
         <v>883023.13755402993</v>
       </c>
       <c r="O58" s="33">
-        <f>O4/About!$A$33*1000</f>
+        <f>O4/About!$A$37*1000</f>
         <v>890227.13789304171</v>
       </c>
       <c r="P58" s="33">
-        <f>P4/About!$A$33*1000</f>
+        <f>P4/About!$A$37*1000</f>
         <v>897431.13823205349</v>
       </c>
       <c r="Q58" s="33">
-        <f>Q4/About!$A$33*1000</f>
+        <f>Q4/About!$A$37*1000</f>
         <v>904635.13857106527</v>
       </c>
       <c r="R58" s="33">
-        <f>R4/About!$A$33*1000</f>
+        <f>R4/About!$A$37*1000</f>
         <v>911839.13891007705</v>
       </c>
       <c r="S58" s="33">
-        <f>S4/About!$A$33*1000</f>
+        <f>S4/About!$A$37*1000</f>
         <v>919043.13924908882</v>
       </c>
       <c r="T58" s="33">
-        <f>T4/About!$A$33*1000</f>
+        <f>T4/About!$A$37*1000</f>
         <v>926247.1395881006</v>
       </c>
       <c r="U58" s="33">
-        <f>U4/About!$A$33*1000</f>
+        <f>U4/About!$A$37*1000</f>
         <v>933451.13992711238</v>
       </c>
       <c r="V58" s="33">
-        <f>V4/About!$A$33*1000</f>
+        <f>V4/About!$A$37*1000</f>
         <v>940655.14026612416</v>
       </c>
       <c r="W58" s="33">
-        <f>W4/About!$A$33*1000</f>
+        <f>W4/About!$A$37*1000</f>
         <v>947859.14060513594</v>
       </c>
       <c r="X58" s="33">
-        <f>X4/About!$A$33*1000</f>
+        <f>X4/About!$A$37*1000</f>
         <v>955063.14094414783</v>
       </c>
       <c r="Y58" s="33">
-        <f>Y4/About!$A$33*1000</f>
+        <f>Y4/About!$A$37*1000</f>
         <v>962267.14128315949</v>
       </c>
       <c r="Z58" s="33">
-        <f>Z4/About!$A$33*1000</f>
+        <f>Z4/About!$A$37*1000</f>
         <v>969471.14162217139</v>
       </c>
       <c r="AA58" s="33">
-        <f>AA4/About!$A$33*1000</f>
+        <f>AA4/About!$A$37*1000</f>
         <v>976675.14196118305</v>
       </c>
       <c r="AB58" s="33">
-        <f>AB4/About!$A$33*1000</f>
+        <f>AB4/About!$A$37*1000</f>
         <v>983879.14230019483</v>
       </c>
       <c r="AC58" s="33">
-        <f>AC4/About!$A$33*1000</f>
+        <f>AC4/About!$A$37*1000</f>
         <v>991083.14263920661</v>
       </c>
       <c r="AD58" s="33">
-        <f>AD4/About!$A$33*1000</f>
+        <f>AD4/About!$A$37*1000</f>
         <v>998287.14297821838</v>
       </c>
       <c r="AE58" s="33">
-        <f>AE4/About!$A$33*1000</f>
+        <f>AE4/About!$A$37*1000</f>
         <v>1005491.1433172303</v>
       </c>
       <c r="AF58" s="33">
-        <f>AF4/About!$A$33*1000</f>
+        <f>AF4/About!$A$37*1000</f>
         <v>1012695.1436562419</v>
       </c>
     </row>
@@ -33343,127 +33496,127 @@
         <v>7</v>
       </c>
       <c r="B59" s="33">
-        <f>B5/About!$A$33*1000</f>
+        <f>B5/About!$A$37*1000</f>
         <v>3841949.5598900625</v>
       </c>
       <c r="C59" s="33">
-        <f>C5/About!$A$33*1000</f>
+        <f>C5/About!$A$37*1000</f>
         <v>3936533.8466940294</v>
       </c>
       <c r="D59" s="33">
-        <f>D5/About!$A$33*1000</f>
+        <f>D5/About!$A$37*1000</f>
         <v>4031118.1334979958</v>
       </c>
       <c r="E59" s="33">
-        <f>E5/About!$A$33*1000</f>
+        <f>E5/About!$A$37*1000</f>
         <v>4125702.4203019617</v>
       </c>
       <c r="F59" s="33">
-        <f>F5/About!$A$33*1000</f>
+        <f>F5/About!$A$37*1000</f>
         <v>4220286.7071059281</v>
       </c>
       <c r="G59" s="33">
-        <f>G5/About!$A$33*1000</f>
+        <f>G5/About!$A$37*1000</f>
         <v>4314870.9939098954</v>
       </c>
       <c r="H59" s="33">
-        <f>H5/About!$A$33*1000</f>
+        <f>H5/About!$A$37*1000</f>
         <v>4409455.2807138618</v>
       </c>
       <c r="I59" s="33">
-        <f>I5/About!$A$33*1000</f>
+        <f>I5/About!$A$37*1000</f>
         <v>4504039.5675178282</v>
       </c>
       <c r="J59" s="33">
-        <f>J5/About!$A$33*1000</f>
+        <f>J5/About!$A$37*1000</f>
         <v>4598623.8543217946</v>
       </c>
       <c r="K59" s="33">
-        <f>K5/About!$A$33*1000</f>
+        <f>K5/About!$A$37*1000</f>
         <v>4693208.14112576</v>
       </c>
       <c r="L59" s="33">
-        <f>L5/About!$A$33*1000</f>
+        <f>L5/About!$A$37*1000</f>
         <v>4787792.4279297264</v>
       </c>
       <c r="M59" s="33">
-        <f>M5/About!$A$33*1000</f>
+        <f>M5/About!$A$37*1000</f>
         <v>4882376.7147337049</v>
       </c>
       <c r="N59" s="33">
-        <f>N5/About!$A$33*1000</f>
+        <f>N5/About!$A$37*1000</f>
         <v>4976961.0015376713</v>
       </c>
       <c r="O59" s="33">
-        <f>O5/About!$A$33*1000</f>
+        <f>O5/About!$A$37*1000</f>
         <v>5071545.2883416377</v>
       </c>
       <c r="P59" s="33">
-        <f>P5/About!$A$33*1000</f>
+        <f>P5/About!$A$37*1000</f>
         <v>5166129.5751456041</v>
       </c>
       <c r="Q59" s="33">
-        <f>Q5/About!$A$33*1000</f>
+        <f>Q5/About!$A$37*1000</f>
         <v>5260713.8619495695</v>
       </c>
       <c r="R59" s="33">
-        <f>R5/About!$A$33*1000</f>
+        <f>R5/About!$A$37*1000</f>
         <v>5355298.1487535369</v>
       </c>
       <c r="S59" s="33">
-        <f>S5/About!$A$33*1000</f>
+        <f>S5/About!$A$37*1000</f>
         <v>5449882.4355575033</v>
       </c>
       <c r="T59" s="33">
-        <f>T5/About!$A$33*1000</f>
+        <f>T5/About!$A$37*1000</f>
         <v>5544466.7223614696</v>
       </c>
       <c r="U59" s="33">
-        <f>U5/About!$A$33*1000</f>
+        <f>U5/About!$A$37*1000</f>
         <v>5639051.009165436</v>
       </c>
       <c r="V59" s="33">
-        <f>V5/About!$A$33*1000</f>
+        <f>V5/About!$A$37*1000</f>
         <v>5733635.2959694024</v>
       </c>
       <c r="W59" s="33">
-        <f>W5/About!$A$33*1000</f>
+        <f>W5/About!$A$37*1000</f>
         <v>5828219.5827733688</v>
       </c>
       <c r="X59" s="33">
-        <f>X5/About!$A$33*1000</f>
+        <f>X5/About!$A$37*1000</f>
         <v>5922803.8695773361</v>
       </c>
       <c r="Y59" s="33">
-        <f>Y5/About!$A$33*1000</f>
+        <f>Y5/About!$A$37*1000</f>
         <v>6017388.1563813016</v>
       </c>
       <c r="Z59" s="33">
-        <f>Z5/About!$A$33*1000</f>
+        <f>Z5/About!$A$37*1000</f>
         <v>6111972.443185268</v>
       </c>
       <c r="AA59" s="33">
-        <f>AA5/About!$A$33*1000</f>
+        <f>AA5/About!$A$37*1000</f>
         <v>6206556.7299892344</v>
       </c>
       <c r="AB59" s="33">
-        <f>AB5/About!$A$33*1000</f>
+        <f>AB5/About!$A$37*1000</f>
         <v>6301141.0167932007</v>
       </c>
       <c r="AC59" s="33">
-        <f>AC5/About!$A$33*1000</f>
+        <f>AC5/About!$A$37*1000</f>
         <v>6395725.3035971671</v>
       </c>
       <c r="AD59" s="33">
-        <f>AD5/About!$A$33*1000</f>
+        <f>AD5/About!$A$37*1000</f>
         <v>6490309.5904011345</v>
       </c>
       <c r="AE59" s="33">
-        <f>AE5/About!$A$33*1000</f>
+        <f>AE5/About!$A$37*1000</f>
         <v>6584893.8772051008</v>
       </c>
       <c r="AF59" s="33">
-        <f>AF5/About!$A$33*1000</f>
+        <f>AF5/About!$A$37*1000</f>
         <v>6679478.1640090672</v>
       </c>
     </row>
@@ -33472,127 +33625,127 @@
         <v>8</v>
       </c>
       <c r="B60" s="33">
-        <f>B6/About!$A$33*1000</f>
+        <f>B6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="C60" s="33">
-        <f>C6/About!$A$33*1000</f>
+        <f>C6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="D60" s="33">
-        <f>D6/About!$A$33*1000</f>
+        <f>D6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="E60" s="33">
-        <f>E6/About!$A$33*1000</f>
+        <f>E6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="F60" s="33">
-        <f>F6/About!$A$33*1000</f>
+        <f>F6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="G60" s="33">
-        <f>G6/About!$A$33*1000</f>
+        <f>G6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="H60" s="33">
-        <f>H6/About!$A$33*1000</f>
+        <f>H6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="I60" s="33">
-        <f>I6/About!$A$33*1000</f>
+        <f>I6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="J60" s="33">
-        <f>J6/About!$A$33*1000</f>
+        <f>J6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="K60" s="33">
-        <f>K6/About!$A$33*1000</f>
+        <f>K6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="L60" s="33">
-        <f>L6/About!$A$33*1000</f>
+        <f>L6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="M60" s="33">
-        <f>M6/About!$A$33*1000</f>
+        <f>M6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="N60" s="33">
-        <f>N6/About!$A$33*1000</f>
+        <f>N6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="O60" s="33">
-        <f>O6/About!$A$33*1000</f>
+        <f>O6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="P60" s="33">
-        <f>P6/About!$A$33*1000</f>
+        <f>P6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="Q60" s="33">
-        <f>Q6/About!$A$33*1000</f>
+        <f>Q6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="R60" s="33">
-        <f>R6/About!$A$33*1000</f>
+        <f>R6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="S60" s="33">
-        <f>S6/About!$A$33*1000</f>
+        <f>S6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="T60" s="33">
-        <f>T6/About!$A$33*1000</f>
+        <f>T6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="U60" s="33">
-        <f>U6/About!$A$33*1000</f>
+        <f>U6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="V60" s="33">
-        <f>V6/About!$A$33*1000</f>
+        <f>V6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="W60" s="33">
-        <f>W6/About!$A$33*1000</f>
+        <f>W6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="X60" s="33">
-        <f>X6/About!$A$33*1000</f>
+        <f>X6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="Y60" s="33">
-        <f>Y6/About!$A$33*1000</f>
+        <f>Y6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="Z60" s="33">
-        <f>Z6/About!$A$33*1000</f>
+        <f>Z6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AA60" s="33">
-        <f>AA6/About!$A$33*1000</f>
+        <f>AA6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AB60" s="33">
-        <f>AB6/About!$A$33*1000</f>
+        <f>AB6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AC60" s="33">
-        <f>AC6/About!$A$33*1000</f>
+        <f>AC6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AD60" s="33">
-        <f>AD6/About!$A$33*1000</f>
+        <f>AD6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AE60" s="33">
-        <f>AE6/About!$A$33*1000</f>
+        <f>AE6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
       <c r="AF60" s="33">
-        <f>AF6/About!$A$33*1000</f>
+        <f>AF6/About!$A$37*1000</f>
         <v>821001.77981184842</v>
       </c>
     </row>
@@ -33601,127 +33754,127 @@
         <v>21</v>
       </c>
       <c r="B61" s="33">
-        <f>B7/About!$A$33*1000</f>
+        <f>B7/About!$A$37*1000</f>
         <v>2137808.2888380368</v>
       </c>
       <c r="C61" s="33">
-        <f>C7/About!$A$33*1000</f>
+        <f>C7/About!$A$37*1000</f>
         <v>2103483.346046275</v>
       </c>
       <c r="D61" s="33">
-        <f>D7/About!$A$33*1000</f>
+        <f>D7/About!$A$37*1000</f>
         <v>2069158.4032545129</v>
       </c>
       <c r="E61" s="33">
-        <f>E7/About!$A$33*1000</f>
+        <f>E7/About!$A$37*1000</f>
         <v>2034833.4604627509</v>
       </c>
       <c r="F61" s="33">
-        <f>F7/About!$A$33*1000</f>
+        <f>F7/About!$A$37*1000</f>
         <v>2000508.517670989</v>
       </c>
       <c r="G61" s="33">
-        <f>G7/About!$A$33*1000</f>
+        <f>G7/About!$A$37*1000</f>
         <v>1966183.5748792267</v>
       </c>
       <c r="H61" s="33">
-        <f>H7/About!$A$33*1000</f>
+        <f>H7/About!$A$37*1000</f>
         <v>1946266.6327654882</v>
       </c>
       <c r="I61" s="33">
-        <f>I7/About!$A$33*1000</f>
+        <f>I7/About!$A$37*1000</f>
         <v>1926349.69065175</v>
       </c>
       <c r="J61" s="33">
-        <f>J7/About!$A$33*1000</f>
+        <f>J7/About!$A$37*1000</f>
         <v>1906432.7485380115</v>
       </c>
       <c r="K61" s="33">
-        <f>K7/About!$A$33*1000</f>
+        <f>K7/About!$A$37*1000</f>
         <v>1886515.8064242729</v>
       </c>
       <c r="L61" s="33">
-        <f>L7/About!$A$33*1000</f>
+        <f>L7/About!$A$37*1000</f>
         <v>1866598.8643105347</v>
       </c>
       <c r="M61" s="33">
-        <f>M7/About!$A$33*1000</f>
+        <f>M7/About!$A$37*1000</f>
         <v>1823105.1938145712</v>
       </c>
       <c r="N61" s="33">
-        <f>N7/About!$A$33*1000</f>
+        <f>N7/About!$A$37*1000</f>
         <v>1795984.2513618208</v>
       </c>
       <c r="O61" s="33">
-        <f>O7/About!$A$33*1000</f>
+        <f>O7/About!$A$37*1000</f>
         <v>1768863.3089090709</v>
       </c>
       <c r="P61" s="33">
-        <f>P7/About!$A$33*1000</f>
+        <f>P7/About!$A$37*1000</f>
         <v>1741742.3664563205</v>
       </c>
       <c r="Q61" s="33">
-        <f>Q7/About!$A$33*1000</f>
+        <f>Q7/About!$A$37*1000</f>
         <v>1714621.4240035703</v>
       </c>
       <c r="R61" s="33">
-        <f>R7/About!$A$33*1000</f>
+        <f>R7/About!$A$37*1000</f>
         <v>1687500.4815508199</v>
       </c>
       <c r="S61" s="33">
-        <f>S7/About!$A$33*1000</f>
+        <f>S7/About!$A$37*1000</f>
         <v>1660379.53909807</v>
       </c>
       <c r="T61" s="33">
-        <f>T7/About!$A$33*1000</f>
+        <f>T7/About!$A$37*1000</f>
         <v>1633258.5966453196</v>
       </c>
       <c r="U61" s="33">
-        <f>U7/About!$A$33*1000</f>
+        <f>U7/About!$A$37*1000</f>
         <v>1606137.6541925694</v>
       </c>
       <c r="V61" s="33">
-        <f>V7/About!$A$33*1000</f>
+        <f>V7/About!$A$37*1000</f>
         <v>1579016.711739819</v>
       </c>
       <c r="W61" s="33">
-        <f>W7/About!$A$33*1000</f>
+        <f>W7/About!$A$37*1000</f>
         <v>1551895.7692870691</v>
       </c>
       <c r="X61" s="33">
-        <f>X7/About!$A$33*1000</f>
+        <f>X7/About!$A$37*1000</f>
         <v>1524774.8268343187</v>
       </c>
       <c r="Y61" s="33">
-        <f>Y7/About!$A$33*1000</f>
+        <f>Y7/About!$A$37*1000</f>
         <v>1497653.8843815685</v>
       </c>
       <c r="Z61" s="33">
-        <f>Z7/About!$A$33*1000</f>
+        <f>Z7/About!$A$37*1000</f>
         <v>1470532.9419288181</v>
       </c>
       <c r="AA61" s="33">
-        <f>AA7/About!$A$33*1000</f>
+        <f>AA7/About!$A$37*1000</f>
         <v>1443411.9994760682</v>
       </c>
       <c r="AB61" s="33">
-        <f>AB7/About!$A$33*1000</f>
+        <f>AB7/About!$A$37*1000</f>
         <v>1416291.0570233178</v>
       </c>
       <c r="AC61" s="33">
-        <f>AC7/About!$A$33*1000</f>
+        <f>AC7/About!$A$37*1000</f>
         <v>1389170.1145705676</v>
       </c>
       <c r="AD61" s="33">
-        <f>AD7/About!$A$33*1000</f>
+        <f>AD7/About!$A$37*1000</f>
         <v>1362049.1721178172</v>
       </c>
       <c r="AE61" s="33">
-        <f>AE7/About!$A$33*1000</f>
+        <f>AE7/About!$A$37*1000</f>
         <v>1334928.229665067</v>
       </c>
       <c r="AF61" s="33">
-        <f>AF7/About!$A$33*1000</f>
+        <f>AF7/About!$A$37*1000</f>
         <v>1307807.2872123169</v>
       </c>
     </row>
@@ -33730,127 +33883,127 @@
         <v>9</v>
       </c>
       <c r="B62" s="33">
-        <f>B8/About!$A$33*1000</f>
+        <f>B8/About!$A$37*1000</f>
         <v>1324349.5211458597</v>
       </c>
       <c r="C62" s="33">
-        <f>C8/About!$A$33*1000</f>
+        <f>C8/About!$A$37*1000</f>
         <v>1281532.3332485803</v>
       </c>
       <c r="D62" s="33">
-        <f>D8/About!$A$33*1000</f>
+        <f>D8/About!$A$37*1000</f>
         <v>1238715.1453513009</v>
       </c>
       <c r="E62" s="33">
-        <f>E8/About!$A$33*1000</f>
+        <f>E8/About!$A$37*1000</f>
         <v>1195897.9574540216</v>
       </c>
       <c r="F62" s="33">
-        <f>F8/About!$A$33*1000</f>
+        <f>F8/About!$A$37*1000</f>
         <v>1153080.7695567422</v>
       </c>
       <c r="G62" s="33">
-        <f>G8/About!$A$33*1000</f>
+        <f>G8/About!$A$37*1000</f>
         <v>1110263.5816594625</v>
       </c>
       <c r="H62" s="33">
-        <f>H8/About!$A$33*1000</f>
+        <f>H8/About!$A$37*1000</f>
         <v>1084481.735740317</v>
       </c>
       <c r="I62" s="33">
-        <f>I8/About!$A$33*1000</f>
+        <f>I8/About!$A$37*1000</f>
         <v>1058699.8898211711</v>
       </c>
       <c r="J62" s="33">
-        <f>J8/About!$A$33*1000</f>
+        <f>J8/About!$A$37*1000</f>
         <v>1032918.0439020256</v>
       </c>
       <c r="K62" s="33">
-        <f>K8/About!$A$33*1000</f>
+        <f>K8/About!$A$37*1000</f>
         <v>1007136.1979828798</v>
       </c>
       <c r="L62" s="33">
-        <f>L8/About!$A$33*1000</f>
+        <f>L8/About!$A$37*1000</f>
         <v>981354.3520637342</v>
       </c>
       <c r="M62" s="33">
-        <f>M8/About!$A$33*1000</f>
+        <f>M8/About!$A$37*1000</f>
         <v>927696.49199855374</v>
       </c>
       <c r="N62" s="33">
-        <f>N8/About!$A$33*1000</f>
+        <f>N8/About!$A$37*1000</f>
         <v>893396.97509034118</v>
       </c>
       <c r="O62" s="33">
-        <f>O8/About!$A$33*1000</f>
+        <f>O8/About!$A$37*1000</f>
         <v>859097.4581821285</v>
       </c>
       <c r="P62" s="33">
-        <f>P8/About!$A$33*1000</f>
+        <f>P8/About!$A$37*1000</f>
         <v>824797.94127391605</v>
       </c>
       <c r="Q62" s="33">
-        <f>Q8/About!$A$33*1000</f>
+        <f>Q8/About!$A$37*1000</f>
         <v>790498.42436570348</v>
       </c>
       <c r="R62" s="33">
-        <f>R8/About!$A$33*1000</f>
+        <f>R8/About!$A$37*1000</f>
         <v>756198.90745749092</v>
       </c>
       <c r="S62" s="33">
-        <f>S8/About!$A$33*1000</f>
+        <f>S8/About!$A$37*1000</f>
         <v>721899.39054927835</v>
       </c>
       <c r="T62" s="33">
-        <f>T8/About!$A$33*1000</f>
+        <f>T8/About!$A$37*1000</f>
         <v>687599.8736410659</v>
       </c>
       <c r="U62" s="33">
-        <f>U8/About!$A$33*1000</f>
+        <f>U8/About!$A$37*1000</f>
         <v>653300.35673285334</v>
       </c>
       <c r="V62" s="33">
-        <f>V8/About!$A$33*1000</f>
+        <f>V8/About!$A$37*1000</f>
         <v>619000.83982464066</v>
       </c>
       <c r="W62" s="33">
-        <f>W8/About!$A$33*1000</f>
+        <f>W8/About!$A$37*1000</f>
         <v>584701.32291642809</v>
       </c>
       <c r="X62" s="33">
-        <f>X8/About!$A$33*1000</f>
+        <f>X8/About!$A$37*1000</f>
         <v>550401.80600821553</v>
       </c>
       <c r="Y62" s="33">
-        <f>Y8/About!$A$33*1000</f>
+        <f>Y8/About!$A$37*1000</f>
         <v>516102.28910000308</v>
       </c>
       <c r="Z62" s="33">
-        <f>Z8/About!$A$33*1000</f>
+        <f>Z8/About!$A$37*1000</f>
         <v>481802.77219179051</v>
       </c>
       <c r="AA62" s="33">
-        <f>AA8/About!$A$33*1000</f>
+        <f>AA8/About!$A$37*1000</f>
         <v>447503.25528357789</v>
       </c>
       <c r="AB62" s="33">
-        <f>AB8/About!$A$33*1000</f>
+        <f>AB8/About!$A$37*1000</f>
         <v>413203.73837536533</v>
       </c>
       <c r="AC62" s="33">
-        <f>AC8/About!$A$33*1000</f>
+        <f>AC8/About!$A$37*1000</f>
         <v>378904.22146715282</v>
       </c>
       <c r="AD62" s="33">
-        <f>AD8/About!$A$33*1000</f>
+        <f>AD8/About!$A$37*1000</f>
         <v>344604.70455894026</v>
       </c>
       <c r="AE62" s="33">
-        <f>AE8/About!$A$33*1000</f>
+        <f>AE8/About!$A$37*1000</f>
         <v>310305.18765072769</v>
       </c>
       <c r="AF62" s="33">
-        <f>AF8/About!$A$33*1000</f>
+        <f>AF8/About!$A$37*1000</f>
         <v>276005.67074251513</v>
       </c>
     </row>
@@ -33859,127 +34012,127 @@
         <v>10</v>
       </c>
       <c r="B63" s="33">
-        <f>B9/About!$A$33*1000</f>
+        <f>B9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="C63" s="33">
-        <f>C9/About!$A$33*1000</f>
+        <f>C9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="D63" s="33">
-        <f>D9/About!$A$33*1000</f>
+        <f>D9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="E63" s="33">
-        <f>E9/About!$A$33*1000</f>
+        <f>E9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="F63" s="33">
-        <f>F9/About!$A$33*1000</f>
+        <f>F9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="G63" s="33">
-        <f>G9/About!$A$33*1000</f>
+        <f>G9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="H63" s="33">
-        <f>H9/About!$A$33*1000</f>
+        <f>H9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="I63" s="33">
-        <f>I9/About!$A$33*1000</f>
+        <f>I9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="J63" s="33">
-        <f>J9/About!$A$33*1000</f>
+        <f>J9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="K63" s="33">
-        <f>K9/About!$A$33*1000</f>
+        <f>K9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="L63" s="33">
-        <f>L9/About!$A$33*1000</f>
+        <f>L9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="M63" s="33">
-        <f>M9/About!$A$33*1000</f>
+        <f>M9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="N63" s="33">
-        <f>N9/About!$A$33*1000</f>
+        <f>N9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="O63" s="33">
-        <f>O9/About!$A$33*1000</f>
+        <f>O9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="P63" s="33">
-        <f>P9/About!$A$33*1000</f>
+        <f>P9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Q63" s="33">
-        <f>Q9/About!$A$33*1000</f>
+        <f>Q9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="R63" s="33">
-        <f>R9/About!$A$33*1000</f>
+        <f>R9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="S63" s="33">
-        <f>S9/About!$A$33*1000</f>
+        <f>S9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="T63" s="33">
-        <f>T9/About!$A$33*1000</f>
+        <f>T9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="U63" s="33">
-        <f>U9/About!$A$33*1000</f>
+        <f>U9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="V63" s="33">
-        <f>V9/About!$A$33*1000</f>
+        <f>V9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="W63" s="33">
-        <f>W9/About!$A$33*1000</f>
+        <f>W9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="X63" s="33">
-        <f>X9/About!$A$33*1000</f>
+        <f>X9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Y63" s="33">
-        <f>Y9/About!$A$33*1000</f>
+        <f>Y9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Z63" s="33">
-        <f>Z9/About!$A$33*1000</f>
+        <f>Z9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AA63" s="33">
-        <f>AA9/About!$A$33*1000</f>
+        <f>AA9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AB63" s="33">
-        <f>AB9/About!$A$33*1000</f>
+        <f>AB9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AC63" s="33">
-        <f>AC9/About!$A$33*1000</f>
+        <f>AC9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AD63" s="33">
-        <f>AD9/About!$A$33*1000</f>
+        <f>AD9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AE63" s="33">
-        <f>AE9/About!$A$33*1000</f>
+        <f>AE9/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AF63" s="33">
-        <f>AF9/About!$A$33*1000</f>
+        <f>AF9/About!$A$37*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -33988,127 +34141,127 @@
         <v>11</v>
       </c>
       <c r="B64" s="33">
-        <f>B10/About!$A$33*1000</f>
+        <f>B10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="C64" s="33">
-        <f>C10/About!$A$33*1000</f>
+        <f>C10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="D64" s="33">
-        <f>D10/About!$A$33*1000</f>
+        <f>D10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="E64" s="33">
-        <f>E10/About!$A$33*1000</f>
+        <f>E10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="F64" s="33">
-        <f>F10/About!$A$33*1000</f>
+        <f>F10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="G64" s="33">
-        <f>G10/About!$A$33*1000</f>
+        <f>G10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="H64" s="33">
-        <f>H10/About!$A$33*1000</f>
+        <f>H10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="I64" s="33">
-        <f>I10/About!$A$33*1000</f>
+        <f>I10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="J64" s="33">
-        <f>J10/About!$A$33*1000</f>
+        <f>J10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="K64" s="33">
-        <f>K10/About!$A$33*1000</f>
+        <f>K10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="L64" s="33">
-        <f>L10/About!$A$33*1000</f>
+        <f>L10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="M64" s="33">
-        <f>M10/About!$A$33*1000</f>
+        <f>M10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="N64" s="33">
-        <f>N10/About!$A$33*1000</f>
+        <f>N10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="O64" s="33">
-        <f>O10/About!$A$33*1000</f>
+        <f>O10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="P64" s="33">
-        <f>P10/About!$A$33*1000</f>
+        <f>P10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="Q64" s="33">
-        <f>Q10/About!$A$33*1000</f>
+        <f>Q10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="R64" s="33">
-        <f>R10/About!$A$33*1000</f>
+        <f>R10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="S64" s="33">
-        <f>S10/About!$A$33*1000</f>
+        <f>S10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="T64" s="33">
-        <f>T10/About!$A$33*1000</f>
+        <f>T10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="U64" s="33">
-        <f>U10/About!$A$33*1000</f>
+        <f>U10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="V64" s="33">
-        <f>V10/About!$A$33*1000</f>
+        <f>V10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="W64" s="33">
-        <f>W10/About!$A$33*1000</f>
+        <f>W10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="X64" s="33">
-        <f>X10/About!$A$33*1000</f>
+        <f>X10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="Y64" s="33">
-        <f>Y10/About!$A$33*1000</f>
+        <f>Y10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="Z64" s="33">
-        <f>Z10/About!$A$33*1000</f>
+        <f>Z10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AA64" s="33">
-        <f>AA10/About!$A$33*1000</f>
+        <f>AA10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AB64" s="33">
-        <f>AB10/About!$A$33*1000</f>
+        <f>AB10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AC64" s="33">
-        <f>AC10/About!$A$33*1000</f>
+        <f>AC10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AD64" s="33">
-        <f>AD10/About!$A$33*1000</f>
+        <f>AD10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AE64" s="33">
-        <f>AE10/About!$A$33*1000</f>
+        <f>AE10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
       <c r="AF64" s="33">
-        <f>AF10/About!$A$33*1000</f>
+        <f>AF10/About!$A$37*1000</f>
         <v>3240387.7447241289</v>
       </c>
     </row>
@@ -34117,127 +34270,127 @@
         <v>15</v>
       </c>
       <c r="B65" s="33">
-        <f>B11/About!$A$33*1000</f>
+        <f>B11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="C65" s="33">
-        <f>C11/About!$A$33*1000</f>
+        <f>C11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="D65" s="33">
-        <f>D11/About!$A$33*1000</f>
+        <f>D11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="E65" s="33">
-        <f>E11/About!$A$33*1000</f>
+        <f>E11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="F65" s="33">
-        <f>F11/About!$A$33*1000</f>
+        <f>F11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="G65" s="33">
-        <f>G11/About!$A$33*1000</f>
+        <f>G11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="H65" s="33">
-        <f>H11/About!$A$33*1000</f>
+        <f>H11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="I65" s="33">
-        <f>I11/About!$A$33*1000</f>
+        <f>I11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="J65" s="33">
-        <f>J11/About!$A$33*1000</f>
+        <f>J11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="K65" s="33">
-        <f>K11/About!$A$33*1000</f>
+        <f>K11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="L65" s="33">
-        <f>L11/About!$A$33*1000</f>
+        <f>L11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="M65" s="33">
-        <f>M11/About!$A$33*1000</f>
+        <f>M11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="N65" s="33">
-        <f>N11/About!$A$33*1000</f>
+        <f>N11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="O65" s="33">
-        <f>O11/About!$A$33*1000</f>
+        <f>O11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="P65" s="33">
-        <f>P11/About!$A$33*1000</f>
+        <f>P11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="Q65" s="33">
-        <f>Q11/About!$A$33*1000</f>
+        <f>Q11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="R65" s="33">
-        <f>R11/About!$A$33*1000</f>
+        <f>R11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="S65" s="33">
-        <f>S11/About!$A$33*1000</f>
+        <f>S11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="T65" s="33">
-        <f>T11/About!$A$33*1000</f>
+        <f>T11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="U65" s="33">
-        <f>U11/About!$A$33*1000</f>
+        <f>U11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="V65" s="33">
-        <f>V11/About!$A$33*1000</f>
+        <f>V11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="W65" s="33">
-        <f>W11/About!$A$33*1000</f>
+        <f>W11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="X65" s="33">
-        <f>X11/About!$A$33*1000</f>
+        <f>X11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="Y65" s="33">
-        <f>Y11/About!$A$33*1000</f>
+        <f>Y11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="Z65" s="33">
-        <f>Z11/About!$A$33*1000</f>
+        <f>Z11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AA65" s="33">
-        <f>AA11/About!$A$33*1000</f>
+        <f>AA11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AB65" s="33">
-        <f>AB11/About!$A$33*1000</f>
+        <f>AB11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AC65" s="33">
-        <f>AC11/About!$A$33*1000</f>
+        <f>AC11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AD65" s="33">
-        <f>AD11/About!$A$33*1000</f>
+        <f>AD11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AE65" s="33">
-        <f>AE11/About!$A$33*1000</f>
+        <f>AE11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
       <c r="AF65" s="33">
-        <f>AF11/About!$A$33*1000</f>
+        <f>AF11/About!$A$37*1000</f>
         <v>8208000</v>
       </c>
     </row>
@@ -34246,127 +34399,127 @@
         <v>16</v>
       </c>
       <c r="B66" s="33">
-        <f>B12/About!$A$33*1000</f>
+        <f>B12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="C66" s="33">
-        <f>C12/About!$A$33*1000</f>
+        <f>C12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="D66" s="33">
-        <f>D12/About!$A$33*1000</f>
+        <f>D12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="E66" s="33">
-        <f>E12/About!$A$33*1000</f>
+        <f>E12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="F66" s="33">
-        <f>F12/About!$A$33*1000</f>
+        <f>F12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="G66" s="33">
-        <f>G12/About!$A$33*1000</f>
+        <f>G12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="H66" s="33">
-        <f>H12/About!$A$33*1000</f>
+        <f>H12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="I66" s="33">
-        <f>I12/About!$A$33*1000</f>
+        <f>I12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="J66" s="33">
-        <f>J12/About!$A$33*1000</f>
+        <f>J12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="K66" s="33">
-        <f>K12/About!$A$33*1000</f>
+        <f>K12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="L66" s="33">
-        <f>L12/About!$A$33*1000</f>
+        <f>L12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="M66" s="33">
-        <f>M12/About!$A$33*1000</f>
+        <f>M12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="N66" s="33">
-        <f>N12/About!$A$33*1000</f>
+        <f>N12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="O66" s="33">
-        <f>O12/About!$A$33*1000</f>
+        <f>O12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="P66" s="33">
-        <f>P12/About!$A$33*1000</f>
+        <f>P12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Q66" s="33">
-        <f>Q12/About!$A$33*1000</f>
+        <f>Q12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="R66" s="33">
-        <f>R12/About!$A$33*1000</f>
+        <f>R12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="S66" s="33">
-        <f>S12/About!$A$33*1000</f>
+        <f>S12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="T66" s="33">
-        <f>T12/About!$A$33*1000</f>
+        <f>T12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="U66" s="33">
-        <f>U12/About!$A$33*1000</f>
+        <f>U12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="V66" s="33">
-        <f>V12/About!$A$33*1000</f>
+        <f>V12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="W66" s="33">
-        <f>W12/About!$A$33*1000</f>
+        <f>W12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="X66" s="33">
-        <f>X12/About!$A$33*1000</f>
+        <f>X12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Y66" s="33">
-        <f>Y12/About!$A$33*1000</f>
+        <f>Y12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Z66" s="33">
-        <f>Z12/About!$A$33*1000</f>
+        <f>Z12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AA66" s="33">
-        <f>AA12/About!$A$33*1000</f>
+        <f>AA12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AB66" s="33">
-        <f>AB12/About!$A$33*1000</f>
+        <f>AB12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AC66" s="33">
-        <f>AC12/About!$A$33*1000</f>
+        <f>AC12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AD66" s="33">
-        <f>AD12/About!$A$33*1000</f>
+        <f>AD12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AE66" s="33">
-        <f>AE12/About!$A$33*1000</f>
+        <f>AE12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AF66" s="33">
-        <f>AF12/About!$A$33*1000</f>
+        <f>AF12/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
     </row>
@@ -34375,127 +34528,127 @@
         <v>17</v>
       </c>
       <c r="B67" s="33">
-        <f>B13/About!$A$33*1000</f>
+        <f>B13/About!$A$37*1000</f>
         <v>557602.59344012197</v>
       </c>
       <c r="C67" s="33">
-        <f>C13/About!$A$33*1000</f>
+        <f>C13/About!$A$37*1000</f>
         <v>562645.39367743023</v>
       </c>
       <c r="D67" s="33">
-        <f>D13/About!$A$33*1000</f>
+        <f>D13/About!$A$37*1000</f>
         <v>567688.19391473848</v>
       </c>
       <c r="E67" s="33">
-        <f>E13/About!$A$33*1000</f>
+        <f>E13/About!$A$37*1000</f>
         <v>572730.99415204674</v>
       </c>
       <c r="F67" s="33">
-        <f>F13/About!$A$33*1000</f>
+        <f>F13/About!$A$37*1000</f>
         <v>577773.794389355</v>
       </c>
       <c r="G67" s="33">
-        <f>G13/About!$A$33*1000</f>
+        <f>G13/About!$A$37*1000</f>
         <v>582816.59462666314</v>
       </c>
       <c r="H67" s="33">
-        <f>H13/About!$A$33*1000</f>
+        <f>H13/About!$A$37*1000</f>
         <v>587859.39486397139</v>
       </c>
       <c r="I67" s="33">
-        <f>I13/About!$A$33*1000</f>
+        <f>I13/About!$A$37*1000</f>
         <v>592902.19510127965</v>
       </c>
       <c r="J67" s="33">
-        <f>J13/About!$A$33*1000</f>
+        <f>J13/About!$A$37*1000</f>
         <v>597944.99533858791</v>
       </c>
       <c r="K67" s="33">
-        <f>K13/About!$A$33*1000</f>
+        <f>K13/About!$A$37*1000</f>
         <v>602987.79557589616</v>
       </c>
       <c r="L67" s="33">
-        <f>L13/About!$A$33*1000</f>
+        <f>L13/About!$A$37*1000</f>
         <v>608030.59581320442</v>
       </c>
       <c r="M67" s="33">
-        <f>M13/About!$A$33*1000</f>
+        <f>M13/About!$A$37*1000</f>
         <v>613073.39605051337</v>
       </c>
       <c r="N67" s="33">
-        <f>N13/About!$A$33*1000</f>
+        <f>N13/About!$A$37*1000</f>
         <v>618116.19628782163</v>
       </c>
       <c r="O67" s="33">
-        <f>O13/About!$A$33*1000</f>
+        <f>O13/About!$A$37*1000</f>
         <v>623158.99652512989</v>
       </c>
       <c r="P67" s="33">
-        <f>P13/About!$A$33*1000</f>
+        <f>P13/About!$A$37*1000</f>
         <v>628201.79676243814</v>
       </c>
       <c r="Q67" s="33">
-        <f>Q13/About!$A$33*1000</f>
+        <f>Q13/About!$A$37*1000</f>
         <v>633244.5969997464</v>
       </c>
       <c r="R67" s="33">
-        <f>R13/About!$A$33*1000</f>
+        <f>R13/About!$A$37*1000</f>
         <v>638287.39723705465</v>
       </c>
       <c r="S67" s="33">
-        <f>S13/About!$A$33*1000</f>
+        <f>S13/About!$A$37*1000</f>
         <v>643330.19747436279</v>
       </c>
       <c r="T67" s="33">
-        <f>T13/About!$A$33*1000</f>
+        <f>T13/About!$A$37*1000</f>
         <v>648372.99771167105</v>
       </c>
       <c r="U67" s="33">
-        <f>U13/About!$A$33*1000</f>
+        <f>U13/About!$A$37*1000</f>
         <v>653415.79794897931</v>
       </c>
       <c r="V67" s="33">
-        <f>V13/About!$A$33*1000</f>
+        <f>V13/About!$A$37*1000</f>
         <v>658458.59818628756</v>
       </c>
       <c r="W67" s="33">
-        <f>W13/About!$A$33*1000</f>
+        <f>W13/About!$A$37*1000</f>
         <v>663501.39842359582</v>
       </c>
       <c r="X67" s="33">
-        <f>X13/About!$A$33*1000</f>
+        <f>X13/About!$A$37*1000</f>
         <v>668544.19866090408</v>
       </c>
       <c r="Y67" s="33">
-        <f>Y13/About!$A$33*1000</f>
+        <f>Y13/About!$A$37*1000</f>
         <v>673586.99889821233</v>
       </c>
       <c r="Z67" s="33">
-        <f>Z13/About!$A$33*1000</f>
+        <f>Z13/About!$A$37*1000</f>
         <v>678629.79913552059</v>
       </c>
       <c r="AA67" s="33">
-        <f>AA13/About!$A$33*1000</f>
+        <f>AA13/About!$A$37*1000</f>
         <v>683672.59937282884</v>
       </c>
       <c r="AB67" s="33">
-        <f>AB13/About!$A$33*1000</f>
+        <f>AB13/About!$A$37*1000</f>
         <v>688715.3996101371</v>
       </c>
       <c r="AC67" s="33">
-        <f>AC13/About!$A$33*1000</f>
+        <f>AC13/About!$A$37*1000</f>
         <v>693758.19984744536</v>
       </c>
       <c r="AD67" s="33">
-        <f>AD13/About!$A$33*1000</f>
+        <f>AD13/About!$A$37*1000</f>
         <v>698801.0000847535</v>
       </c>
       <c r="AE67" s="33">
-        <f>AE13/About!$A$33*1000</f>
+        <f>AE13/About!$A$37*1000</f>
         <v>703843.80032206175</v>
       </c>
       <c r="AF67" s="33">
-        <f>AF13/About!$A$33*1000</f>
+        <f>AF13/About!$A$37*1000</f>
         <v>708886.60055937001</v>
       </c>
     </row>
@@ -34504,127 +34657,127 @@
         <v>22</v>
       </c>
       <c r="B68" s="33">
-        <f>B14/About!$A$33*1000</f>
+        <f>B14/About!$A$37*1000</f>
         <v>1219138.0625476735</v>
       </c>
       <c r="C68" s="33">
-        <f>C14/About!$A$33*1000</f>
+        <f>C14/About!$A$37*1000</f>
         <v>1263547.7582846005</v>
       </c>
       <c r="D68" s="33">
-        <f>D14/About!$A$33*1000</f>
+        <f>D14/About!$A$37*1000</f>
         <v>1307957.4540215272</v>
       </c>
       <c r="E68" s="33">
-        <f>E14/About!$A$33*1000</f>
+        <f>E14/About!$A$37*1000</f>
         <v>1352367.1497584539</v>
       </c>
       <c r="F68" s="33">
-        <f>F14/About!$A$33*1000</f>
+        <f>F14/About!$A$37*1000</f>
         <v>1396776.8454953809</v>
       </c>
       <c r="G68" s="33">
-        <f>G14/About!$A$33*1000</f>
+        <f>G14/About!$A$37*1000</f>
         <v>1441186.5412323077</v>
       </c>
       <c r="H68" s="33">
-        <f>H14/About!$A$33*1000</f>
+        <f>H14/About!$A$37*1000</f>
         <v>1485596.2369692344</v>
       </c>
       <c r="I68" s="33">
-        <f>I14/About!$A$33*1000</f>
+        <f>I14/About!$A$37*1000</f>
         <v>1530005.9327061614</v>
       </c>
       <c r="J68" s="33">
-        <f>J14/About!$A$33*1000</f>
+        <f>J14/About!$A$37*1000</f>
         <v>1574415.6284430884</v>
       </c>
       <c r="K68" s="33">
-        <f>K14/About!$A$33*1000</f>
+        <f>K14/About!$A$37*1000</f>
         <v>1618825.3241800151</v>
       </c>
       <c r="L68" s="33">
-        <f>L14/About!$A$33*1000</f>
+        <f>L14/About!$A$37*1000</f>
         <v>1663235.0199169421</v>
       </c>
       <c r="M68" s="33">
-        <f>M14/About!$A$33*1000</f>
+        <f>M14/About!$A$37*1000</f>
         <v>1707644.7156538689</v>
       </c>
       <c r="N68" s="33">
-        <f>N14/About!$A$33*1000</f>
+        <f>N14/About!$A$37*1000</f>
         <v>1752054.4113907956</v>
       </c>
       <c r="O68" s="33">
-        <f>O14/About!$A$33*1000</f>
+        <f>O14/About!$A$37*1000</f>
         <v>1796464.1071277226</v>
       </c>
       <c r="P68" s="33">
-        <f>P14/About!$A$33*1000</f>
+        <f>P14/About!$A$37*1000</f>
         <v>1840873.8028646493</v>
       </c>
       <c r="Q68" s="33">
-        <f>Q14/About!$A$33*1000</f>
+        <f>Q14/About!$A$37*1000</f>
         <v>1885283.4986015761</v>
       </c>
       <c r="R68" s="33">
-        <f>R14/About!$A$33*1000</f>
+        <f>R14/About!$A$37*1000</f>
         <v>1929693.1943385033</v>
       </c>
       <c r="S68" s="33">
-        <f>S14/About!$A$33*1000</f>
+        <f>S14/About!$A$37*1000</f>
         <v>1974102.89007543</v>
       </c>
       <c r="T68" s="33">
-        <f>T14/About!$A$33*1000</f>
+        <f>T14/About!$A$37*1000</f>
         <v>2018512.5858123568</v>
       </c>
       <c r="U68" s="33">
-        <f>U14/About!$A$33*1000</f>
+        <f>U14/About!$A$37*1000</f>
         <v>2062922.2815492835</v>
       </c>
       <c r="V68" s="33">
-        <f>V14/About!$A$33*1000</f>
+        <f>V14/About!$A$37*1000</f>
         <v>2107331.9772862107</v>
       </c>
       <c r="W68" s="33">
-        <f>W14/About!$A$33*1000</f>
+        <f>W14/About!$A$37*1000</f>
         <v>2151741.6730231377</v>
       </c>
       <c r="X68" s="33">
-        <f>X14/About!$A$33*1000</f>
+        <f>X14/About!$A$37*1000</f>
         <v>2196151.3687600642</v>
       </c>
       <c r="Y68" s="33">
-        <f>Y14/About!$A$33*1000</f>
+        <f>Y14/About!$A$37*1000</f>
         <v>2240561.0644969912</v>
       </c>
       <c r="Z68" s="33">
-        <f>Z14/About!$A$33*1000</f>
+        <f>Z14/About!$A$37*1000</f>
         <v>2284970.7602339182</v>
       </c>
       <c r="AA68" s="33">
-        <f>AA14/About!$A$33*1000</f>
+        <f>AA14/About!$A$37*1000</f>
         <v>2329380.4559708447</v>
       </c>
       <c r="AB68" s="33">
-        <f>AB14/About!$A$33*1000</f>
+        <f>AB14/About!$A$37*1000</f>
         <v>2373790.1517077717</v>
       </c>
       <c r="AC68" s="33">
-        <f>AC14/About!$A$33*1000</f>
+        <f>AC14/About!$A$37*1000</f>
         <v>2418199.8474446987</v>
       </c>
       <c r="AD68" s="33">
-        <f>AD14/About!$A$33*1000</f>
+        <f>AD14/About!$A$37*1000</f>
         <v>2462609.5431816252</v>
       </c>
       <c r="AE68" s="33">
-        <f>AE14/About!$A$33*1000</f>
+        <f>AE14/About!$A$37*1000</f>
         <v>2507019.2389185522</v>
       </c>
       <c r="AF68" s="33">
-        <f>AF14/About!$A$33*1000</f>
+        <f>AF14/About!$A$37*1000</f>
         <v>2551428.9346554792</v>
       </c>
     </row>
@@ -34633,127 +34786,127 @@
         <v>20</v>
       </c>
       <c r="B69" s="33">
-        <f>B15/About!$A$33*1000</f>
+        <f>B15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="C69" s="33">
-        <f>C15/About!$A$33*1000</f>
+        <f>C15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="D69" s="33">
-        <f>D15/About!$A$33*1000</f>
+        <f>D15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="E69" s="33">
-        <f>E15/About!$A$33*1000</f>
+        <f>E15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="F69" s="33">
-        <f>F15/About!$A$33*1000</f>
+        <f>F15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="G69" s="33">
-        <f>G15/About!$A$33*1000</f>
+        <f>G15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="H69" s="33">
-        <f>H15/About!$A$33*1000</f>
+        <f>H15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="I69" s="33">
-        <f>I15/About!$A$33*1000</f>
+        <f>I15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="J69" s="33">
-        <f>J15/About!$A$33*1000</f>
+        <f>J15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="K69" s="33">
-        <f>K15/About!$A$33*1000</f>
+        <f>K15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="L69" s="33">
-        <f>L15/About!$A$33*1000</f>
+        <f>L15/About!$A$37*1000</f>
         <v>3641000</v>
       </c>
       <c r="M69" s="33">
-        <f>M15/About!$A$33*1000</f>
+        <f>M15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="N69" s="33">
-        <f>N15/About!$A$33*1000</f>
+        <f>N15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="O69" s="33">
-        <f>O15/About!$A$33*1000</f>
+        <f>O15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="P69" s="33">
-        <f>P15/About!$A$33*1000</f>
+        <f>P15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="Q69" s="33">
-        <f>Q15/About!$A$33*1000</f>
+        <f>Q15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="R69" s="33">
-        <f>R15/About!$A$33*1000</f>
+        <f>R15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="S69" s="33">
-        <f>S15/About!$A$33*1000</f>
+        <f>S15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="T69" s="33">
-        <f>T15/About!$A$33*1000</f>
+        <f>T15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="U69" s="33">
-        <f>U15/About!$A$33*1000</f>
+        <f>U15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="V69" s="33">
-        <f>V15/About!$A$33*1000</f>
+        <f>V15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="W69" s="33">
-        <f>W15/About!$A$33*1000</f>
+        <f>W15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="X69" s="33">
-        <f>X15/About!$A$33*1000</f>
+        <f>X15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="Y69" s="33">
-        <f>Y15/About!$A$33*1000</f>
+        <f>Y15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="Z69" s="33">
-        <f>Z15/About!$A$33*1000</f>
+        <f>Z15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AA69" s="33">
-        <f>AA15/About!$A$33*1000</f>
+        <f>AA15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AB69" s="33">
-        <f>AB15/About!$A$33*1000</f>
+        <f>AB15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AC69" s="33">
-        <f>AC15/About!$A$33*1000</f>
+        <f>AC15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AD69" s="33">
-        <f>AD15/About!$A$33*1000</f>
+        <f>AD15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AE69" s="33">
-        <f>AE15/About!$A$33*1000</f>
+        <f>AE15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
       <c r="AF69" s="33">
-        <f>AF15/About!$A$33*1000</f>
+        <f>AF15/About!$A$37*1000</f>
         <v>3640999.9999999991</v>
       </c>
     </row>
@@ -34762,127 +34915,127 @@
         <v>23</v>
       </c>
       <c r="B70" s="33">
-        <f>B16/About!$A$33*1000</f>
+        <f>B16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="C70" s="33">
-        <f>C16/About!$A$33*1000</f>
+        <f>C16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="D70" s="33">
-        <f>D16/About!$A$33*1000</f>
+        <f>D16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="E70" s="33">
-        <f>E16/About!$A$33*1000</f>
+        <f>E16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="F70" s="33">
-        <f>F16/About!$A$33*1000</f>
+        <f>F16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="G70" s="33">
-        <f>G16/About!$A$33*1000</f>
+        <f>G16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="H70" s="33">
-        <f>H16/About!$A$33*1000</f>
+        <f>H16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="I70" s="33">
-        <f>I16/About!$A$33*1000</f>
+        <f>I16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="J70" s="33">
-        <f>J16/About!$A$33*1000</f>
+        <f>J16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="K70" s="33">
-        <f>K16/About!$A$33*1000</f>
+        <f>K16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="L70" s="33">
-        <f>L16/About!$A$33*1000</f>
+        <f>L16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="M70" s="33">
-        <f>M16/About!$A$33*1000</f>
+        <f>M16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="N70" s="33">
-        <f>N16/About!$A$33*1000</f>
+        <f>N16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="O70" s="33">
-        <f>O16/About!$A$33*1000</f>
+        <f>O16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="P70" s="33">
-        <f>P16/About!$A$33*1000</f>
+        <f>P16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Q70" s="33">
-        <f>Q16/About!$A$33*1000</f>
+        <f>Q16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="R70" s="33">
-        <f>R16/About!$A$33*1000</f>
+        <f>R16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="S70" s="33">
-        <f>S16/About!$A$33*1000</f>
+        <f>S16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="T70" s="33">
-        <f>T16/About!$A$33*1000</f>
+        <f>T16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="U70" s="33">
-        <f>U16/About!$A$33*1000</f>
+        <f>U16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="V70" s="33">
-        <f>V16/About!$A$33*1000</f>
+        <f>V16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="W70" s="33">
-        <f>W16/About!$A$33*1000</f>
+        <f>W16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="X70" s="33">
-        <f>X16/About!$A$33*1000</f>
+        <f>X16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Y70" s="33">
-        <f>Y16/About!$A$33*1000</f>
+        <f>Y16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Z70" s="33">
-        <f>Z16/About!$A$33*1000</f>
+        <f>Z16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AA70" s="33">
-        <f>AA16/About!$A$33*1000</f>
+        <f>AA16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AB70" s="33">
-        <f>AB16/About!$A$33*1000</f>
+        <f>AB16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AC70" s="33">
-        <f>AC16/About!$A$33*1000</f>
+        <f>AC16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AD70" s="33">
-        <f>AD16/About!$A$33*1000</f>
+        <f>AD16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AE70" s="33">
-        <f>AE16/About!$A$33*1000</f>
+        <f>AE16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AF70" s="33">
-        <f>AF16/About!$A$33*1000</f>
+        <f>AF16/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
     </row>
@@ -34891,127 +35044,127 @@
         <v>24</v>
       </c>
       <c r="B71" s="33">
-        <f>B17/About!$A$33*1000</f>
+        <f>B17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="C71" s="33">
-        <f>C17/About!$A$33*1000</f>
+        <f>C17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="D71" s="33">
-        <f>D17/About!$A$33*1000</f>
+        <f>D17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="E71" s="33">
-        <f>E17/About!$A$33*1000</f>
+        <f>E17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="F71" s="33">
-        <f>F17/About!$A$33*1000</f>
+        <f>F17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="G71" s="33">
-        <f>G17/About!$A$33*1000</f>
+        <f>G17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="H71" s="33">
-        <f>H17/About!$A$33*1000</f>
+        <f>H17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="I71" s="33">
-        <f>I17/About!$A$33*1000</f>
+        <f>I17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="J71" s="33">
-        <f>J17/About!$A$33*1000</f>
+        <f>J17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="K71" s="33">
-        <f>K17/About!$A$33*1000</f>
+        <f>K17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="L71" s="33">
-        <f>L17/About!$A$33*1000</f>
+        <f>L17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="M71" s="33">
-        <f>M17/About!$A$33*1000</f>
+        <f>M17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="N71" s="33">
-        <f>N17/About!$A$33*1000</f>
+        <f>N17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="O71" s="33">
-        <f>O17/About!$A$33*1000</f>
+        <f>O17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="P71" s="33">
-        <f>P17/About!$A$33*1000</f>
+        <f>P17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Q71" s="33">
-        <f>Q17/About!$A$33*1000</f>
+        <f>Q17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="R71" s="33">
-        <f>R17/About!$A$33*1000</f>
+        <f>R17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="S71" s="33">
-        <f>S17/About!$A$33*1000</f>
+        <f>S17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="T71" s="33">
-        <f>T17/About!$A$33*1000</f>
+        <f>T17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="U71" s="33">
-        <f>U17/About!$A$33*1000</f>
+        <f>U17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="V71" s="33">
-        <f>V17/About!$A$33*1000</f>
+        <f>V17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="W71" s="33">
-        <f>W17/About!$A$33*1000</f>
+        <f>W17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="X71" s="33">
-        <f>X17/About!$A$33*1000</f>
+        <f>X17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Y71" s="33">
-        <f>Y17/About!$A$33*1000</f>
+        <f>Y17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="Z71" s="33">
-        <f>Z17/About!$A$33*1000</f>
+        <f>Z17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AA71" s="33">
-        <f>AA17/About!$A$33*1000</f>
+        <f>AA17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AB71" s="33">
-        <f>AB17/About!$A$33*1000</f>
+        <f>AB17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AC71" s="33">
-        <f>AC17/About!$A$33*1000</f>
+        <f>AC17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AD71" s="33">
-        <f>AD17/About!$A$33*1000</f>
+        <f>AD17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AE71" s="33">
-        <f>AE17/About!$A$33*1000</f>
+        <f>AE17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
       <c r="AF71" s="33">
-        <f>AF17/About!$A$33*1000</f>
+        <f>AF17/About!$A$37*1000</f>
         <v>1606605.6445461479</v>
       </c>
     </row>
@@ -35020,127 +35173,127 @@
         <v>25</v>
       </c>
       <c r="B72" s="33">
-        <f>B18/About!$A$33*1000</f>
+        <f>B18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="C72" s="33">
-        <f>C18/About!$A$33*1000</f>
+        <f>C18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="D72" s="33">
-        <f>D18/About!$A$33*1000</f>
+        <f>D18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="E72" s="33">
-        <f>E18/About!$A$33*1000</f>
+        <f>E18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="F72" s="33">
-        <f>F18/About!$A$33*1000</f>
+        <f>F18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="G72" s="33">
-        <f>G18/About!$A$33*1000</f>
+        <f>G18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="H72" s="33">
-        <f>H18/About!$A$33*1000</f>
+        <f>H18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="I72" s="33">
-        <f>I18/About!$A$33*1000</f>
+        <f>I18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="J72" s="33">
-        <f>J18/About!$A$33*1000</f>
+        <f>J18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="K72" s="33">
-        <f>K18/About!$A$33*1000</f>
+        <f>K18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="L72" s="33">
-        <f>L18/About!$A$33*1000</f>
+        <f>L18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="M72" s="33">
-        <f>M18/About!$A$33*1000</f>
+        <f>M18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="N72" s="33">
-        <f>N18/About!$A$33*1000</f>
+        <f>N18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="O72" s="33">
-        <f>O18/About!$A$33*1000</f>
+        <f>O18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="P72" s="33">
-        <f>P18/About!$A$33*1000</f>
+        <f>P18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="Q72" s="33">
-        <f>Q18/About!$A$33*1000</f>
+        <f>Q18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="R72" s="33">
-        <f>R18/About!$A$33*1000</f>
+        <f>R18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="S72" s="33">
-        <f>S18/About!$A$33*1000</f>
+        <f>S18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="T72" s="33">
-        <f>T18/About!$A$33*1000</f>
+        <f>T18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="U72" s="33">
-        <f>U18/About!$A$33*1000</f>
+        <f>U18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="V72" s="33">
-        <f>V18/About!$A$33*1000</f>
+        <f>V18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="W72" s="33">
-        <f>W18/About!$A$33*1000</f>
+        <f>W18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="X72" s="33">
-        <f>X18/About!$A$33*1000</f>
+        <f>X18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="Y72" s="33">
-        <f>Y18/About!$A$33*1000</f>
+        <f>Y18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="Z72" s="33">
-        <f>Z18/About!$A$33*1000</f>
+        <f>Z18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AA72" s="33">
-        <f>AA18/About!$A$33*1000</f>
+        <f>AA18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AB72" s="33">
-        <f>AB18/About!$A$33*1000</f>
+        <f>AB18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AC72" s="33">
-        <f>AC18/About!$A$33*1000</f>
+        <f>AC18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AD72" s="33">
-        <f>AD18/About!$A$33*1000</f>
+        <f>AD18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AE72" s="33">
-        <f>AE18/About!$A$33*1000</f>
+        <f>AE18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
       <c r="AF72" s="33">
-        <f>AF18/About!$A$33*1000</f>
+        <f>AF18/About!$A$37*1000</f>
         <v>4068141.3679125351</v>
       </c>
     </row>
@@ -35261,127 +35414,127 @@
         <v>19</v>
       </c>
       <c r="B75" s="33">
-        <f>B21/About!$A$33*1000</f>
+        <f>B21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="C75" s="33">
-        <f>C21/About!$A$33*1000</f>
+        <f>C21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="D75" s="33">
-        <f>D21/About!$A$33*1000</f>
+        <f>D21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="E75" s="33">
-        <f>E21/About!$A$33*1000</f>
+        <f>E21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="F75" s="33">
-        <f>F21/About!$A$33*1000</f>
+        <f>F21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="G75" s="33">
-        <f>G21/About!$A$33*1000</f>
+        <f>G21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="H75" s="33">
-        <f>H21/About!$A$33*1000</f>
+        <f>H21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="I75" s="33">
-        <f>I21/About!$A$33*1000</f>
+        <f>I21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="J75" s="33">
-        <f>J21/About!$A$33*1000</f>
+        <f>J21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="K75" s="33">
-        <f>K21/About!$A$33*1000</f>
+        <f>K21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="L75" s="33">
-        <f>L21/About!$A$33*1000</f>
+        <f>L21/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="M75" s="33">
-        <f>M21/About!$A$33*1000</f>
+        <f>M21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="N75" s="33">
-        <f>N21/About!$A$33*1000</f>
+        <f>N21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="O75" s="33">
-        <f>O21/About!$A$33*1000</f>
+        <f>O21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="P75" s="33">
-        <f>P21/About!$A$33*1000</f>
+        <f>P21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Q75" s="33">
-        <f>Q21/About!$A$33*1000</f>
+        <f>Q21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="R75" s="33">
-        <f>R21/About!$A$33*1000</f>
+        <f>R21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="S75" s="33">
-        <f>S21/About!$A$33*1000</f>
+        <f>S21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="T75" s="33">
-        <f>T21/About!$A$33*1000</f>
+        <f>T21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="U75" s="33">
-        <f>U21/About!$A$33*1000</f>
+        <f>U21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="V75" s="33">
-        <f>V21/About!$A$33*1000</f>
+        <f>V21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="W75" s="33">
-        <f>W21/About!$A$33*1000</f>
+        <f>W21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="X75" s="33">
-        <f>X21/About!$A$33*1000</f>
+        <f>X21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Y75" s="33">
-        <f>Y21/About!$A$33*1000</f>
+        <f>Y21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Z75" s="33">
-        <f>Z21/About!$A$33*1000</f>
+        <f>Z21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AA75" s="33">
-        <f>AA21/About!$A$33*1000</f>
+        <f>AA21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AB75" s="33">
-        <f>AB21/About!$A$33*1000</f>
+        <f>AB21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AC75" s="33">
-        <f>AC21/About!$A$33*1000</f>
+        <f>AC21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AD75" s="33">
-        <f>AD21/About!$A$33*1000</f>
+        <f>AD21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AE75" s="33">
-        <f>AE21/About!$A$33*1000</f>
+        <f>AE21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AF75" s="33">
-        <f>AF21/About!$A$33*1000</f>
+        <f>AF21/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
     </row>
@@ -35390,127 +35543,127 @@
         <v>14</v>
       </c>
       <c r="B76" s="33">
-        <f>B22/About!$A$33*1000</f>
+        <f>B22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="C76" s="33">
-        <f>C22/About!$A$33*1000</f>
+        <f>C22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="D76" s="33">
-        <f>D22/About!$A$33*1000</f>
+        <f>D22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="E76" s="33">
-        <f>E22/About!$A$33*1000</f>
+        <f>E22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="F76" s="33">
-        <f>F22/About!$A$33*1000</f>
+        <f>F22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="G76" s="33">
-        <f>G22/About!$A$33*1000</f>
+        <f>G22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="H76" s="33">
-        <f>H22/About!$A$33*1000</f>
+        <f>H22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="I76" s="33">
-        <f>I22/About!$A$33*1000</f>
+        <f>I22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="J76" s="33">
-        <f>J22/About!$A$33*1000</f>
+        <f>J22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="K76" s="33">
-        <f>K22/About!$A$33*1000</f>
+        <f>K22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="L76" s="33">
-        <f>L22/About!$A$33*1000</f>
+        <f>L22/About!$A$37*1000</f>
         <v>37151.995931858626</v>
       </c>
       <c r="M76" s="33">
-        <f>M22/About!$A$33*1000</f>
+        <f>M22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="N76" s="33">
-        <f>N22/About!$A$33*1000</f>
+        <f>N22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="O76" s="33">
-        <f>O22/About!$A$33*1000</f>
+        <f>O22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="P76" s="33">
-        <f>P22/About!$A$33*1000</f>
+        <f>P22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="Q76" s="33">
-        <f>Q22/About!$A$33*1000</f>
+        <f>Q22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="R76" s="33">
-        <f>R22/About!$A$33*1000</f>
+        <f>R22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="S76" s="33">
-        <f>S22/About!$A$33*1000</f>
+        <f>S22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="T76" s="33">
-        <f>T22/About!$A$33*1000</f>
+        <f>T22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="U76" s="33">
-        <f>U22/About!$A$33*1000</f>
+        <f>U22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="V76" s="33">
-        <f>V22/About!$A$33*1000</f>
+        <f>V22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="W76" s="33">
-        <f>W22/About!$A$33*1000</f>
+        <f>W22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="X76" s="33">
-        <f>X22/About!$A$33*1000</f>
+        <f>X22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="Y76" s="33">
-        <f>Y22/About!$A$33*1000</f>
+        <f>Y22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="Z76" s="33">
-        <f>Z22/About!$A$33*1000</f>
+        <f>Z22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AA76" s="33">
-        <f>AA22/About!$A$33*1000</f>
+        <f>AA22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AB76" s="33">
-        <f>AB22/About!$A$33*1000</f>
+        <f>AB22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AC76" s="33">
-        <f>AC22/About!$A$33*1000</f>
+        <f>AC22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AD76" s="33">
-        <f>AD22/About!$A$33*1000</f>
+        <f>AD22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AE76" s="33">
-        <f>AE22/About!$A$33*1000</f>
+        <f>AE22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
       <c r="AF76" s="33">
-        <f>AF22/About!$A$33*1000</f>
+        <f>AF22/About!$A$37*1000</f>
         <v>37151.995931858633</v>
       </c>
     </row>
@@ -35519,127 +35672,127 @@
         <v>7</v>
       </c>
       <c r="B77" s="33">
-        <f>B23/About!$A$33*1000</f>
+        <f>B23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="C77" s="33">
-        <f>C23/About!$A$33*1000</f>
+        <f>C23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="D77" s="33">
-        <f>D23/About!$A$33*1000</f>
+        <f>D23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="E77" s="33">
-        <f>E23/About!$A$33*1000</f>
+        <f>E23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="F77" s="33">
-        <f>F23/About!$A$33*1000</f>
+        <f>F23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="G77" s="33">
-        <f>G23/About!$A$33*1000</f>
+        <f>G23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="H77" s="33">
-        <f>H23/About!$A$33*1000</f>
+        <f>H23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="I77" s="33">
-        <f>I23/About!$A$33*1000</f>
+        <f>I23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="J77" s="33">
-        <f>J23/About!$A$33*1000</f>
+        <f>J23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="K77" s="33">
-        <f>K23/About!$A$33*1000</f>
+        <f>K23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="L77" s="33">
-        <f>L23/About!$A$33*1000</f>
+        <f>L23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="M77" s="33">
-        <f>M23/About!$A$33*1000</f>
+        <f>M23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="N77" s="33">
-        <f>N23/About!$A$33*1000</f>
+        <f>N23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="O77" s="33">
-        <f>O23/About!$A$33*1000</f>
+        <f>O23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="P77" s="33">
-        <f>P23/About!$A$33*1000</f>
+        <f>P23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="Q77" s="33">
-        <f>Q23/About!$A$33*1000</f>
+        <f>Q23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="R77" s="33">
-        <f>R23/About!$A$33*1000</f>
+        <f>R23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="S77" s="33">
-        <f>S23/About!$A$33*1000</f>
+        <f>S23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="T77" s="33">
-        <f>T23/About!$A$33*1000</f>
+        <f>T23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="U77" s="33">
-        <f>U23/About!$A$33*1000</f>
+        <f>U23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="V77" s="33">
-        <f>V23/About!$A$33*1000</f>
+        <f>V23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="W77" s="33">
-        <f>W23/About!$A$33*1000</f>
+        <f>W23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="X77" s="33">
-        <f>X23/About!$A$33*1000</f>
+        <f>X23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="Y77" s="33">
-        <f>Y23/About!$A$33*1000</f>
+        <f>Y23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="Z77" s="33">
-        <f>Z23/About!$A$33*1000</f>
+        <f>Z23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AA77" s="33">
-        <f>AA23/About!$A$33*1000</f>
+        <f>AA23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AB77" s="33">
-        <f>AB23/About!$A$33*1000</f>
+        <f>AB23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AC77" s="33">
-        <f>AC23/About!$A$33*1000</f>
+        <f>AC23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AD77" s="33">
-        <f>AD23/About!$A$33*1000</f>
+        <f>AD23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AE77" s="33">
-        <f>AE23/About!$A$33*1000</f>
+        <f>AE23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
       <c r="AF77" s="33">
-        <f>AF23/About!$A$33*1000</f>
+        <f>AF23/About!$A$37*1000</f>
         <v>141484.66819221969</v>
       </c>
     </row>
@@ -35648,127 +35801,127 @@
         <v>8</v>
       </c>
       <c r="B78" s="33">
-        <f>B24/About!$A$33*1000</f>
+        <f>B24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="C78" s="33">
-        <f>C24/About!$A$33*1000</f>
+        <f>C24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="D78" s="33">
-        <f>D24/About!$A$33*1000</f>
+        <f>D24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="E78" s="33">
-        <f>E24/About!$A$33*1000</f>
+        <f>E24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="F78" s="33">
-        <f>F24/About!$A$33*1000</f>
+        <f>F24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="G78" s="33">
-        <f>G24/About!$A$33*1000</f>
+        <f>G24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="H78" s="33">
-        <f>H24/About!$A$33*1000</f>
+        <f>H24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="I78" s="33">
-        <f>I24/About!$A$33*1000</f>
+        <f>I24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="J78" s="33">
-        <f>J24/About!$A$33*1000</f>
+        <f>J24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="K78" s="33">
-        <f>K24/About!$A$33*1000</f>
+        <f>K24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="L78" s="33">
-        <f>L24/About!$A$33*1000</f>
+        <f>L24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="M78" s="33">
-        <f>M24/About!$A$33*1000</f>
+        <f>M24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="N78" s="33">
-        <f>N24/About!$A$33*1000</f>
+        <f>N24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="O78" s="33">
-        <f>O24/About!$A$33*1000</f>
+        <f>O24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="P78" s="33">
-        <f>P24/About!$A$33*1000</f>
+        <f>P24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="Q78" s="33">
-        <f>Q24/About!$A$33*1000</f>
+        <f>Q24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="R78" s="33">
-        <f>R24/About!$A$33*1000</f>
+        <f>R24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="S78" s="33">
-        <f>S24/About!$A$33*1000</f>
+        <f>S24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="T78" s="33">
-        <f>T24/About!$A$33*1000</f>
+        <f>T24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="U78" s="33">
-        <f>U24/About!$A$33*1000</f>
+        <f>U24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="V78" s="33">
-        <f>V24/About!$A$33*1000</f>
+        <f>V24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="W78" s="33">
-        <f>W24/About!$A$33*1000</f>
+        <f>W24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="X78" s="33">
-        <f>X24/About!$A$33*1000</f>
+        <f>X24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="Y78" s="33">
-        <f>Y24/About!$A$33*1000</f>
+        <f>Y24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="Z78" s="33">
-        <f>Z24/About!$A$33*1000</f>
+        <f>Z24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AA78" s="33">
-        <f>AA24/About!$A$33*1000</f>
+        <f>AA24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AB78" s="33">
-        <f>AB24/About!$A$33*1000</f>
+        <f>AB24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AC78" s="33">
-        <f>AC24/About!$A$33*1000</f>
+        <f>AC24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AD78" s="33">
-        <f>AD24/About!$A$33*1000</f>
+        <f>AD24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AE78" s="33">
-        <f>AE24/About!$A$33*1000</f>
+        <f>AE24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
       <c r="AF78" s="33">
-        <f>AF24/About!$A$33*1000</f>
+        <f>AF24/About!$A$37*1000</f>
         <v>20525.04449529621</v>
       </c>
     </row>
@@ -35777,127 +35930,127 @@
         <v>21</v>
       </c>
       <c r="B79" s="33">
-        <f>B25/About!$A$33*1000</f>
+        <f>B25/About!$A$37*1000</f>
         <v>53445.207220950928</v>
       </c>
       <c r="C79" s="33">
-        <f>C25/About!$A$33*1000</f>
+        <f>C25/About!$A$37*1000</f>
         <v>52587.08365115687</v>
       </c>
       <c r="D79" s="33">
-        <f>D25/About!$A$33*1000</f>
+        <f>D25/About!$A$37*1000</f>
         <v>51728.96008136282</v>
       </c>
       <c r="E79" s="33">
-        <f>E25/About!$A$33*1000</f>
+        <f>E25/About!$A$37*1000</f>
         <v>50870.836511568777</v>
       </c>
       <c r="F79" s="33">
-        <f>F25/About!$A$33*1000</f>
+        <f>F25/About!$A$37*1000</f>
         <v>50012.71294177472</v>
       </c>
       <c r="G79" s="33">
-        <f>G25/About!$A$33*1000</f>
+        <f>G25/About!$A$37*1000</f>
         <v>49154.58937198067</v>
       </c>
       <c r="H79" s="33">
-        <f>H25/About!$A$33*1000</f>
+        <f>H25/About!$A$37*1000</f>
         <v>48656.665819137212</v>
       </c>
       <c r="I79" s="33">
-        <f>I25/About!$A$33*1000</f>
+        <f>I25/About!$A$37*1000</f>
         <v>48158.742266293753</v>
       </c>
       <c r="J79" s="33">
-        <f>J25/About!$A$33*1000</f>
+        <f>J25/About!$A$37*1000</f>
         <v>47660.818713450288</v>
       </c>
       <c r="K79" s="33">
-        <f>K25/About!$A$33*1000</f>
+        <f>K25/About!$A$37*1000</f>
         <v>47162.895160606829</v>
       </c>
       <c r="L79" s="33">
-        <f>L25/About!$A$33*1000</f>
+        <f>L25/About!$A$37*1000</f>
         <v>46664.971607763364</v>
       </c>
       <c r="M79" s="33">
-        <f>M25/About!$A$33*1000</f>
+        <f>M25/About!$A$37*1000</f>
         <v>45577.629845364354</v>
       </c>
       <c r="N79" s="33">
-        <f>N25/About!$A$33*1000</f>
+        <f>N25/About!$A$37*1000</f>
         <v>44899.6062840456</v>
       </c>
       <c r="O79" s="33">
-        <f>O25/About!$A$33*1000</f>
+        <f>O25/About!$A$37*1000</f>
         <v>44221.582722726853</v>
       </c>
       <c r="P79" s="33">
-        <f>P25/About!$A$33*1000</f>
+        <f>P25/About!$A$37*1000</f>
         <v>43543.559161408091</v>
       </c>
       <c r="Q79" s="33">
-        <f>Q25/About!$A$33*1000</f>
+        <f>Q25/About!$A$37*1000</f>
         <v>42865.535600089337</v>
       </c>
       <c r="R79" s="33">
-        <f>R25/About!$A$33*1000</f>
+        <f>R25/About!$A$37*1000</f>
         <v>42187.512038770576</v>
       </c>
       <c r="S79" s="33">
-        <f>S25/About!$A$33*1000</f>
+        <f>S25/About!$A$37*1000</f>
         <v>41509.488477451821</v>
       </c>
       <c r="T79" s="33">
-        <f>T25/About!$A$33*1000</f>
+        <f>T25/About!$A$37*1000</f>
         <v>40831.464916133074</v>
       </c>
       <c r="U79" s="33">
-        <f>U25/About!$A$33*1000</f>
+        <f>U25/About!$A$37*1000</f>
         <v>40153.441354814313</v>
       </c>
       <c r="V79" s="33">
-        <f>V25/About!$A$33*1000</f>
+        <f>V25/About!$A$37*1000</f>
         <v>39475.417793495559</v>
       </c>
       <c r="W79" s="33">
-        <f>W25/About!$A$33*1000</f>
+        <f>W25/About!$A$37*1000</f>
         <v>38797.394232176797</v>
       </c>
       <c r="X79" s="33">
-        <f>X25/About!$A$33*1000</f>
+        <f>X25/About!$A$37*1000</f>
         <v>38119.370670858043</v>
       </c>
       <c r="Y79" s="33">
-        <f>Y25/About!$A$33*1000</f>
+        <f>Y25/About!$A$37*1000</f>
         <v>37441.347109539296</v>
       </c>
       <c r="Z79" s="33">
-        <f>Z25/About!$A$33*1000</f>
+        <f>Z25/About!$A$37*1000</f>
         <v>36763.323548220535</v>
       </c>
       <c r="AA79" s="33">
-        <f>AA25/About!$A$33*1000</f>
+        <f>AA25/About!$A$37*1000</f>
         <v>36085.29998690178</v>
       </c>
       <c r="AB79" s="33">
-        <f>AB25/About!$A$33*1000</f>
+        <f>AB25/About!$A$37*1000</f>
         <v>35407.276425583019</v>
       </c>
       <c r="AC79" s="33">
-        <f>AC25/About!$A$33*1000</f>
+        <f>AC25/About!$A$37*1000</f>
         <v>34729.252864264265</v>
       </c>
       <c r="AD79" s="33">
-        <f>AD25/About!$A$33*1000</f>
+        <f>AD25/About!$A$37*1000</f>
         <v>34051.229302945518</v>
       </c>
       <c r="AE79" s="33">
-        <f>AE25/About!$A$33*1000</f>
+        <f>AE25/About!$A$37*1000</f>
         <v>33373.205741626756</v>
       </c>
       <c r="AF79" s="33">
-        <f>AF25/About!$A$33*1000</f>
+        <f>AF25/About!$A$37*1000</f>
         <v>32695.182180308002</v>
       </c>
     </row>
@@ -35906,127 +36059,127 @@
         <v>9</v>
       </c>
       <c r="B80" s="33">
-        <f>B26/About!$A$33*1000</f>
+        <f>B26/About!$A$37*1000</f>
         <v>49105.008899059234</v>
       </c>
       <c r="C80" s="33">
-        <f>C26/About!$A$33*1000</f>
+        <f>C26/About!$A$37*1000</f>
         <v>48462.751080600043</v>
       </c>
       <c r="D80" s="33">
-        <f>D26/About!$A$33*1000</f>
+        <f>D26/About!$A$37*1000</f>
         <v>47820.493262140852</v>
       </c>
       <c r="E80" s="33">
-        <f>E26/About!$A$33*1000</f>
+        <f>E26/About!$A$37*1000</f>
         <v>47178.23544368166</v>
       </c>
       <c r="F80" s="33">
-        <f>F26/About!$A$33*1000</f>
+        <f>F26/About!$A$37*1000</f>
         <v>46535.977625222462</v>
       </c>
       <c r="G80" s="33">
-        <f>G26/About!$A$33*1000</f>
+        <f>G26/About!$A$37*1000</f>
         <v>45893.719806763278</v>
       </c>
       <c r="H80" s="33">
-        <f>H26/About!$A$33*1000</f>
+        <f>H26/About!$A$37*1000</f>
         <v>45506.9921179761</v>
       </c>
       <c r="I80" s="33">
-        <f>I26/About!$A$33*1000</f>
+        <f>I26/About!$A$37*1000</f>
         <v>45120.264429188908</v>
       </c>
       <c r="J80" s="33">
-        <f>J26/About!$A$33*1000</f>
+        <f>J26/About!$A$37*1000</f>
         <v>44733.536740401716</v>
       </c>
       <c r="K80" s="33">
-        <f>K26/About!$A$33*1000</f>
+        <f>K26/About!$A$37*1000</f>
         <v>44346.809051614531</v>
       </c>
       <c r="L80" s="33">
-        <f>L26/About!$A$33*1000</f>
+        <f>L26/About!$A$37*1000</f>
         <v>43960.081362827354</v>
       </c>
       <c r="M80" s="33">
-        <f>M26/About!$A$33*1000</f>
+        <f>M26/About!$A$37*1000</f>
         <v>43155.21346184986</v>
       </c>
       <c r="N80" s="33">
-        <f>N26/About!$A$33*1000</f>
+        <f>N26/About!$A$37*1000</f>
         <v>42640.720708226632</v>
       </c>
       <c r="O80" s="33">
-        <f>O26/About!$A$33*1000</f>
+        <f>O26/About!$A$37*1000</f>
         <v>42126.227954603411</v>
       </c>
       <c r="P80" s="33">
-        <f>P26/About!$A$33*1000</f>
+        <f>P26/About!$A$37*1000</f>
         <v>41611.735200980176</v>
       </c>
       <c r="Q80" s="33">
-        <f>Q26/About!$A$33*1000</f>
+        <f>Q26/About!$A$37*1000</f>
         <v>41097.242447356948</v>
       </c>
       <c r="R80" s="33">
-        <f>R26/About!$A$33*1000</f>
+        <f>R26/About!$A$37*1000</f>
         <v>40582.749693733924</v>
       </c>
       <c r="S80" s="33">
-        <f>S26/About!$A$33*1000</f>
+        <f>S26/About!$A$37*1000</f>
         <v>40068.256940110696</v>
       </c>
       <c r="T80" s="33">
-        <f>T26/About!$A$33*1000</f>
+        <f>T26/About!$A$37*1000</f>
         <v>39553.76418648746</v>
       </c>
       <c r="U80" s="33">
-        <f>U26/About!$A$33*1000</f>
+        <f>U26/About!$A$37*1000</f>
         <v>39039.27143286424</v>
       </c>
       <c r="V80" s="33">
-        <f>V26/About!$A$33*1000</f>
+        <f>V26/About!$A$37*1000</f>
         <v>38524.778679241012</v>
       </c>
       <c r="W80" s="33">
-        <f>W26/About!$A$33*1000</f>
+        <f>W26/About!$A$37*1000</f>
         <v>38010.28592561798</v>
       </c>
       <c r="X80" s="33">
-        <f>X26/About!$A$33*1000</f>
+        <f>X26/About!$A$37*1000</f>
         <v>37495.793171994745</v>
       </c>
       <c r="Y80" s="33">
-        <f>Y26/About!$A$33*1000</f>
+        <f>Y26/About!$A$37*1000</f>
         <v>36981.300418371524</v>
       </c>
       <c r="Z80" s="33">
-        <f>Z26/About!$A$33*1000</f>
+        <f>Z26/About!$A$37*1000</f>
         <v>36466.807664748296</v>
       </c>
       <c r="AA80" s="33">
-        <f>AA26/About!$A$33*1000</f>
+        <f>AA26/About!$A$37*1000</f>
         <v>35952.314911125068</v>
       </c>
       <c r="AB80" s="33">
-        <f>AB26/About!$A$33*1000</f>
+        <f>AB26/About!$A$37*1000</f>
         <v>35437.822157502036</v>
       </c>
       <c r="AC80" s="33">
-        <f>AC26/About!$A$33*1000</f>
+        <f>AC26/About!$A$37*1000</f>
         <v>34923.329403878808</v>
       </c>
       <c r="AD80" s="33">
-        <f>AD26/About!$A$33*1000</f>
+        <f>AD26/About!$A$37*1000</f>
         <v>34408.83665025558</v>
       </c>
       <c r="AE80" s="33">
-        <f>AE26/About!$A$33*1000</f>
+        <f>AE26/About!$A$37*1000</f>
         <v>33894.343896632352</v>
       </c>
       <c r="AF80" s="33">
-        <f>AF26/About!$A$33*1000</f>
+        <f>AF26/About!$A$37*1000</f>
         <v>33379.851143009124</v>
       </c>
     </row>
@@ -36035,127 +36188,127 @@
         <v>10</v>
       </c>
       <c r="B81" s="33">
-        <f>B27/About!$A$33*1000</f>
+        <f>B27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="C81" s="33">
-        <f>C27/About!$A$33*1000</f>
+        <f>C27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="D81" s="33">
-        <f>D27/About!$A$33*1000</f>
+        <f>D27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="E81" s="33">
-        <f>E27/About!$A$33*1000</f>
+        <f>E27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="F81" s="33">
-        <f>F27/About!$A$33*1000</f>
+        <f>F27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="G81" s="33">
-        <f>G27/About!$A$33*1000</f>
+        <f>G27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="H81" s="33">
-        <f>H27/About!$A$33*1000</f>
+        <f>H27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="I81" s="33">
-        <f>I27/About!$A$33*1000</f>
+        <f>I27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="J81" s="33">
-        <f>J27/About!$A$33*1000</f>
+        <f>J27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="K81" s="33">
-        <f>K27/About!$A$33*1000</f>
+        <f>K27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="L81" s="33">
-        <f>L27/About!$A$33*1000</f>
+        <f>L27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="M81" s="33">
-        <f>M27/About!$A$33*1000</f>
+        <f>M27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="N81" s="33">
-        <f>N27/About!$A$33*1000</f>
+        <f>N27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="O81" s="33">
-        <f>O27/About!$A$33*1000</f>
+        <f>O27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="P81" s="33">
-        <f>P27/About!$A$33*1000</f>
+        <f>P27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Q81" s="33">
-        <f>Q27/About!$A$33*1000</f>
+        <f>Q27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="R81" s="33">
-        <f>R27/About!$A$33*1000</f>
+        <f>R27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="S81" s="33">
-        <f>S27/About!$A$33*1000</f>
+        <f>S27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="T81" s="33">
-        <f>T27/About!$A$33*1000</f>
+        <f>T27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="U81" s="33">
-        <f>U27/About!$A$33*1000</f>
+        <f>U27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="V81" s="33">
-        <f>V27/About!$A$33*1000</f>
+        <f>V27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="W81" s="33">
-        <f>W27/About!$A$33*1000</f>
+        <f>W27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="X81" s="33">
-        <f>X27/About!$A$33*1000</f>
+        <f>X27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Y81" s="33">
-        <f>Y27/About!$A$33*1000</f>
+        <f>Y27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="Z81" s="33">
-        <f>Z27/About!$A$33*1000</f>
+        <f>Z27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AA81" s="33">
-        <f>AA27/About!$A$33*1000</f>
+        <f>AA27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AB81" s="33">
-        <f>AB27/About!$A$33*1000</f>
+        <f>AB27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AC81" s="33">
-        <f>AC27/About!$A$33*1000</f>
+        <f>AC27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AD81" s="33">
-        <f>AD27/About!$A$33*1000</f>
+        <f>AD27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AE81" s="33">
-        <f>AE27/About!$A$33*1000</f>
+        <f>AE27/About!$A$37*1000</f>
         <v>0</v>
       </c>
       <c r="AF81" s="33">
-        <f>AF27/About!$A$33*1000</f>
+        <f>AF27/About!$A$37*1000</f>
         <v>0</v>
       </c>
     </row>
@@ -36164,127 +36317,127 @@
         <v>11</v>
       </c>
       <c r="B82" s="33">
-        <f>B28/About!$A$33*1000</f>
+        <f>B28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="C82" s="33">
-        <f>C28/About!$A$33*1000</f>
+        <f>C28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="D82" s="33">
-        <f>D28/About!$A$33*1000</f>
+        <f>D28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="E82" s="33">
-        <f>E28/About!$A$33*1000</f>
+        <f>E28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="F82" s="33">
-        <f>F28/About!$A$33*1000</f>
+        <f>F28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="G82" s="33">
-        <f>G28/About!$A$33*1000</f>
+        <f>G28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="H82" s="33">
-        <f>H28/About!$A$33*1000</f>
+        <f>H28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="I82" s="33">
-        <f>I28/About!$A$33*1000</f>
+        <f>I28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="J82" s="33">
-        <f>J28/About!$A$33*1000</f>
+        <f>J28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="K82" s="33">
-        <f>K28/About!$A$33*1000</f>
+        <f>K28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="L82" s="33">
-        <f>L28/About!$A$33*1000</f>
+        <f>L28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="M82" s="33">
-        <f>M28/About!$A$33*1000</f>
+        <f>M28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="N82" s="33">
-        <f>N28/About!$A$33*1000</f>
+        <f>N28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="O82" s="33">
-        <f>O28/About!$A$33*1000</f>
+        <f>O28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="P82" s="33">
-        <f>P28/About!$A$33*1000</f>
+        <f>P28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="Q82" s="33">
-        <f>Q28/About!$A$33*1000</f>
+        <f>Q28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="R82" s="33">
-        <f>R28/About!$A$33*1000</f>
+        <f>R28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="S82" s="33">
-        <f>S28/About!$A$33*1000</f>
+        <f>S28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="T82" s="33">
-        <f>T28/About!$A$33*1000</f>
+        <f>T28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="U82" s="33">
-        <f>U28/About!$A$33*1000</f>
+        <f>U28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="V82" s="33">
-        <f>V28/About!$A$33*1000</f>
+        <f>V28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="W82" s="33">
-        <f>W28/About!$A$33*1000</f>
+        <f>W28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="X82" s="33">
-        <f>X28/About!$A$33*1000</f>
+        <f>X28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="Y82" s="33">
-        <f>Y28/About!$A$33*1000</f>
+        <f>Y28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="Z82" s="33">
-        <f>Z28/About!$A$33*1000</f>
+        <f>Z28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AA82" s="33">
-        <f>AA28/About!$A$33*1000</f>
+        <f>AA28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AB82" s="33">
-        <f>AB28/About!$A$33*1000</f>
+        <f>AB28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AC82" s="33">
-        <f>AC28/About!$A$33*1000</f>
+        <f>AC28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AD82" s="33">
-        <f>AD28/About!$A$33*1000</f>
+        <f>AD28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AE82" s="33">
-        <f>AE28/About!$A$33*1000</f>
+        <f>AE28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
       <c r="AF82" s="33">
-        <f>AF28/About!$A$33*1000</f>
+        <f>AF28/About!$A$37*1000</f>
         <v>81009.693618103222</v>
       </c>
     </row>
@@ -36293,127 +36446,127 @@
         <v>15</v>
       </c>
       <c r="B83" s="33">
-        <f>B29/About!$A$33*1000</f>
+        <f>B29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="C83" s="33">
-        <f>C29/About!$A$33*1000</f>
+        <f>C29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="D83" s="33">
-        <f>D29/About!$A$33*1000</f>
+        <f>D29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="E83" s="33">
-        <f>E29/About!$A$33*1000</f>
+        <f>E29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="F83" s="33">
-        <f>F29/About!$A$33*1000</f>
+        <f>F29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="G83" s="33">
-        <f>G29/About!$A$33*1000</f>
+        <f>G29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="H83" s="33">
-        <f>H29/About!$A$33*1000</f>
+        <f>H29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="I83" s="33">
-        <f>I29/About!$A$33*1000</f>
+        <f>I29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="J83" s="33">
-        <f>J29/About!$A$33*1000</f>
+        <f>J29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="K83" s="33">
-        <f>K29/About!$A$33*1000</f>
+        <f>K29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="L83" s="33">
-        <f>L29/About!$A$33*1000</f>
+        <f>L29/About!$A$37*1000</f>
         <v>205200.00000000003</v>
       </c>
       <c r="M83" s="33">
-        <f>M29/About!$A$33*1000</f>
+        <f>M29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="N83" s="33">
-        <f>N29/About!$A$33*1000</f>
+        <f>N29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="O83" s="33">
-        <f>O29/About!$A$33*1000</f>
+        <f>O29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="P83" s="33">
-        <f>P29/About!$A$33*1000</f>
+        <f>P29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="Q83" s="33">
-        <f>Q29/About!$A$33*1000</f>
+        <f>Q29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="R83" s="33">
-        <f>R29/About!$A$33*1000</f>
+        <f>R29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="S83" s="33">
-        <f>S29/About!$A$33*1000</f>
+        <f>S29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="T83" s="33">
-        <f>T29/About!$A$33*1000</f>
+        <f>T29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="U83" s="33">
-        <f>U29/About!$A$33*1000</f>
+        <f>U29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="V83" s="33">
-        <f>V29/About!$A$33*1000</f>
+        <f>V29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="W83" s="33">
-        <f>W29/About!$A$33*1000</f>
+        <f>W29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="X83" s="33">
-        <f>X29/About!$A$33*1000</f>
+        <f>X29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="Y83" s="33">
-        <f>Y29/About!$A$33*1000</f>
+        <f>Y29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="Z83" s="33">
-        <f>Z29/About!$A$33*1000</f>
+        <f>Z29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AA83" s="33">
-        <f>AA29/About!$A$33*1000</f>
+        <f>AA29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AB83" s="33">
-        <f>AB29/About!$A$33*1000</f>
+        <f>AB29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AC83" s="33">
-        <f>AC29/About!$A$33*1000</f>
+        <f>AC29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AD83" s="33">
-        <f>AD29/About!$A$33*1000</f>
+        <f>AD29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AE83" s="33">
-        <f>AE29/About!$A$33*1000</f>
+        <f>AE29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
       <c r="AF83" s="33">
-        <f>AF29/About!$A$33*1000</f>
+        <f>AF29/About!$A$37*1000</f>
         <v>205200</v>
       </c>
     </row>
@@ -36422,127 +36575,127 @@
         <v>16</v>
       </c>
       <c r="B84" s="33">
-        <f>B30/About!$A$33*1000</f>
+        <f>B30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="C84" s="33">
-        <f>C30/About!$A$33*1000</f>
+        <f>C30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="D84" s="33">
-        <f>D30/About!$A$33*1000</f>
+        <f>D30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="E84" s="33">
-        <f>E30/About!$A$33*1000</f>
+        <f>E30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="F84" s="33">
-        <f>F30/About!$A$33*1000</f>
+        <f>F30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="G84" s="33">
-        <f>G30/About!$A$33*1000</f>
+        <f>G30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="H84" s="33">
-        <f>H30/About!$A$33*1000</f>
+        <f>H30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="I84" s="33">
-        <f>I30/About!$A$33*1000</f>
+        <f>I30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="J84" s="33">
-        <f>J30/About!$A$33*1000</f>
+        <f>J30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="K84" s="33">
-        <f>K30/About!$A$33*1000</f>
+        <f>K30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="L84" s="33">
-        <f>L30/About!$A$33*1000</f>
+        <f>L30/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="M84" s="33">
-        <f>M30/About!$A$33*1000</f>
+        <f>M30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="N84" s="33">
-        <f>N30/About!$A$33*1000</f>
+        <f>N30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="O84" s="33">
-        <f>O30/About!$A$33*1000</f>
+        <f>O30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="P84" s="33">
-        <f>P30/About!$A$33*1000</f>
+        <f>P30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Q84" s="33">
-        <f>Q30/About!$A$33*1000</f>
+        <f>Q30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="R84" s="33">
-        <f>R30/About!$A$33*1000</f>
+        <f>R30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="S84" s="33">
-        <f>S30/About!$A$33*1000</f>
+        <f>S30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="T84" s="33">
-        <f>T30/About!$A$33*1000</f>
+        <f>T30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="U84" s="33">
-        <f>U30/About!$A$33*1000</f>
+        <f>U30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="V84" s="33">
-        <f>V30/About!$A$33*1000</f>
+        <f>V30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="W84" s="33">
-        <f>W30/About!$A$33*1000</f>
+        <f>W30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="X84" s="33">
-        <f>X30/About!$A$33*1000</f>
+        <f>X30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Y84" s="33">
-        <f>Y30/About!$A$33*1000</f>
+        <f>Y30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Z84" s="33">
-        <f>Z30/About!$A$33*1000</f>
+        <f>Z30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AA84" s="33">
-        <f>AA30/About!$A$33*1000</f>
+        <f>AA30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AB84" s="33">
-        <f>AB30/About!$A$33*1000</f>
+        <f>AB30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AC84" s="33">
-        <f>AC30/About!$A$33*1000</f>
+        <f>AC30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AD84" s="33">
-        <f>AD30/About!$A$33*1000</f>
+        <f>AD30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AE84" s="33">
-        <f>AE30/About!$A$33*1000</f>
+        <f>AE30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AF84" s="33">
-        <f>AF30/About!$A$33*1000</f>
+        <f>AF30/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
     </row>
@@ -36551,127 +36704,127 @@
         <v>17</v>
       </c>
       <c r="B85" s="33">
-        <f>B31/About!$A$33*1000</f>
+        <f>B31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="C85" s="33">
-        <f>C31/About!$A$33*1000</f>
+        <f>C31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="D85" s="33">
-        <f>D31/About!$A$33*1000</f>
+        <f>D31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="E85" s="33">
-        <f>E31/About!$A$33*1000</f>
+        <f>E31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="F85" s="33">
-        <f>F31/About!$A$33*1000</f>
+        <f>F31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="G85" s="33">
-        <f>G31/About!$A$33*1000</f>
+        <f>G31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="H85" s="33">
-        <f>H31/About!$A$33*1000</f>
+        <f>H31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="I85" s="33">
-        <f>I31/About!$A$33*1000</f>
+        <f>I31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="J85" s="33">
-        <f>J31/About!$A$33*1000</f>
+        <f>J31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="K85" s="33">
-        <f>K31/About!$A$33*1000</f>
+        <f>K31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="L85" s="33">
-        <f>L31/About!$A$33*1000</f>
+        <f>L31/About!$A$37*1000</f>
         <v>13940.06483600305</v>
       </c>
       <c r="M85" s="33">
-        <f>M31/About!$A$33*1000</f>
+        <f>M31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="N85" s="33">
-        <f>N31/About!$A$33*1000</f>
+        <f>N31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="O85" s="33">
-        <f>O31/About!$A$33*1000</f>
+        <f>O31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="P85" s="33">
-        <f>P31/About!$A$33*1000</f>
+        <f>P31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="Q85" s="33">
-        <f>Q31/About!$A$33*1000</f>
+        <f>Q31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="R85" s="33">
-        <f>R31/About!$A$33*1000</f>
+        <f>R31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="S85" s="33">
-        <f>S31/About!$A$33*1000</f>
+        <f>S31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="T85" s="33">
-        <f>T31/About!$A$33*1000</f>
+        <f>T31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="U85" s="33">
-        <f>U31/About!$A$33*1000</f>
+        <f>U31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="V85" s="33">
-        <f>V31/About!$A$33*1000</f>
+        <f>V31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="W85" s="33">
-        <f>W31/About!$A$33*1000</f>
+        <f>W31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="X85" s="33">
-        <f>X31/About!$A$33*1000</f>
+        <f>X31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="Y85" s="33">
-        <f>Y31/About!$A$33*1000</f>
+        <f>Y31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="Z85" s="33">
-        <f>Z31/About!$A$33*1000</f>
+        <f>Z31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AA85" s="33">
-        <f>AA31/About!$A$33*1000</f>
+        <f>AA31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AB85" s="33">
-        <f>AB31/About!$A$33*1000</f>
+        <f>AB31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AC85" s="33">
-        <f>AC31/About!$A$33*1000</f>
+        <f>AC31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AD85" s="33">
-        <f>AD31/About!$A$33*1000</f>
+        <f>AD31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AE85" s="33">
-        <f>AE31/About!$A$33*1000</f>
+        <f>AE31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
       <c r="AF85" s="33">
-        <f>AF31/About!$A$33*1000</f>
+        <f>AF31/About!$A$37*1000</f>
         <v>13940.064836003054</v>
       </c>
     </row>
@@ -36680,127 +36833,127 @@
         <v>22</v>
       </c>
       <c r="B86" s="33">
-        <f>B32/About!$A$33*1000</f>
+        <f>B32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="C86" s="33">
-        <f>C32/About!$A$33*1000</f>
+        <f>C32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="D86" s="33">
-        <f>D32/About!$A$33*1000</f>
+        <f>D32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="E86" s="33">
-        <f>E32/About!$A$33*1000</f>
+        <f>E32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="F86" s="33">
-        <f>F32/About!$A$33*1000</f>
+        <f>F32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="G86" s="33">
-        <f>G32/About!$A$33*1000</f>
+        <f>G32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="H86" s="33">
-        <f>H32/About!$A$33*1000</f>
+        <f>H32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="I86" s="33">
-        <f>I32/About!$A$33*1000</f>
+        <f>I32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="J86" s="33">
-        <f>J32/About!$A$33*1000</f>
+        <f>J32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="K86" s="33">
-        <f>K32/About!$A$33*1000</f>
+        <f>K32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="L86" s="33">
-        <f>L32/About!$A$33*1000</f>
+        <f>L32/About!$A$37*1000</f>
         <v>56505.059750826338</v>
       </c>
       <c r="M86" s="33">
-        <f>M32/About!$A$33*1000</f>
+        <f>M32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="N86" s="33">
-        <f>N32/About!$A$33*1000</f>
+        <f>N32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="O86" s="33">
-        <f>O32/About!$A$33*1000</f>
+        <f>O32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="P86" s="33">
-        <f>P32/About!$A$33*1000</f>
+        <f>P32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Q86" s="33">
-        <f>Q32/About!$A$33*1000</f>
+        <f>Q32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="R86" s="33">
-        <f>R32/About!$A$33*1000</f>
+        <f>R32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="S86" s="33">
-        <f>S32/About!$A$33*1000</f>
+        <f>S32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="T86" s="33">
-        <f>T32/About!$A$33*1000</f>
+        <f>T32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="U86" s="33">
-        <f>U32/About!$A$33*1000</f>
+        <f>U32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="V86" s="33">
-        <f>V32/About!$A$33*1000</f>
+        <f>V32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="W86" s="33">
-        <f>W32/About!$A$33*1000</f>
+        <f>W32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="X86" s="33">
-        <f>X32/About!$A$33*1000</f>
+        <f>X32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Y86" s="33">
-        <f>Y32/About!$A$33*1000</f>
+        <f>Y32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="Z86" s="33">
-        <f>Z32/About!$A$33*1000</f>
+        <f>Z32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AA86" s="33">
-        <f>AA32/About!$A$33*1000</f>
+        <f>AA32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AB86" s="33">
-        <f>AB32/About!$A$33*1000</f>
+        <f>AB32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AC86" s="33">
-        <f>AC32/About!$A$33*1000</f>
+        <f>AC32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AD86" s="33">
-        <f>AD32/About!$A$33*1000</f>
+        <f>AD32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AE86" s="33">
-        <f>AE32/About!$A$33*1000</f>
+        <f>AE32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
       <c r="AF86" s="33">
-        <f>AF32/About!$A$33*1000</f>
+        <f>AF32/About!$A$37*1000</f>
         <v>56505.059750826353</v>
       </c>
     </row>
@@ -36809,127 +36962,127 @@
         <v>20</v>
       </c>
       <c r="B87" s="33">
-        <f>B33/About!$A$33*1000</f>
+        <f>B33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="C87" s="33">
-        <f>C33/About!$A$33*1000</f>
+        <f>C33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="D87" s="33">
-        <f>D33/About!$A$33*1000</f>
+        <f>D33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="E87" s="33">
-        <f>E33/About!$A$33*1000</f>
+        <f>E33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="F87" s="33">
-        <f>F33/About!$A$33*1000</f>
+        <f>F33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="G87" s="33">
-        <f>G33/About!$A$33*1000</f>
+        <f>G33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="H87" s="33">
-        <f>H33/About!$A$33*1000</f>
+        <f>H33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="I87" s="33">
-        <f>I33/About!$A$33*1000</f>
+        <f>I33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="J87" s="33">
-        <f>J33/About!$A$33*1000</f>
+        <f>J33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="K87" s="33">
-        <f>K33/About!$A$33*1000</f>
+        <f>K33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="L87" s="33">
-        <f>L33/About!$A$33*1000</f>
+        <f>L33/About!$A$37*1000</f>
         <v>91025</v>
       </c>
       <c r="M87" s="33">
-        <f>M33/About!$A$33*1000</f>
+        <f>M33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="N87" s="33">
-        <f>N33/About!$A$33*1000</f>
+        <f>N33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="O87" s="33">
-        <f>O33/About!$A$33*1000</f>
+        <f>O33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="P87" s="33">
-        <f>P33/About!$A$33*1000</f>
+        <f>P33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="Q87" s="33">
-        <f>Q33/About!$A$33*1000</f>
+        <f>Q33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="R87" s="33">
-        <f>R33/About!$A$33*1000</f>
+        <f>R33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="S87" s="33">
-        <f>S33/About!$A$33*1000</f>
+        <f>S33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="T87" s="33">
-        <f>T33/About!$A$33*1000</f>
+        <f>T33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="U87" s="33">
-        <f>U33/About!$A$33*1000</f>
+        <f>U33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="V87" s="33">
-        <f>V33/About!$A$33*1000</f>
+        <f>V33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="W87" s="33">
-        <f>W33/About!$A$33*1000</f>
+        <f>W33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="X87" s="33">
-        <f>X33/About!$A$33*1000</f>
+        <f>X33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="Y87" s="33">
-        <f>Y33/About!$A$33*1000</f>
+        <f>Y33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="Z87" s="33">
-        <f>Z33/About!$A$33*1000</f>
+        <f>Z33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AA87" s="33">
-        <f>AA33/About!$A$33*1000</f>
+        <f>AA33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AB87" s="33">
-        <f>AB33/About!$A$33*1000</f>
+        <f>AB33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AC87" s="33">
-        <f>AC33/About!$A$33*1000</f>
+        <f>AC33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AD87" s="33">
-        <f>AD33/About!$A$33*1000</f>
+        <f>AD33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AE87" s="33">
-        <f>AE33/About!$A$33*1000</f>
+        <f>AE33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
       <c r="AF87" s="33">
-        <f>AF33/About!$A$33*1000</f>
+        <f>AF33/About!$A$37*1000</f>
         <v>91024.999999999971</v>
       </c>
     </row>
@@ -36938,127 +37091,127 @@
         <v>23</v>
       </c>
       <c r="B88" s="33">
-        <f>B34/About!$A$33*1000</f>
+        <f>B34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="C88" s="33">
-        <f>C34/About!$A$33*1000</f>
+        <f>C34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="D88" s="33">
-        <f>D34/About!$A$33*1000</f>
+        <f>D34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="E88" s="33">
-        <f>E34/About!$A$33*1000</f>
+        <f>E34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="F88" s="33">
-        <f>F34/About!$A$33*1000</f>
+        <f>F34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="G88" s="33">
-        <f>G34/About!$A$33*1000</f>
+        <f>G34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="H88" s="33">
-        <f>H34/About!$A$33*1000</f>
+        <f>H34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="I88" s="33">
-        <f>I34/About!$A$33*1000</f>
+        <f>I34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="J88" s="33">
-        <f>J34/About!$A$33*1000</f>
+        <f>J34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="K88" s="33">
-        <f>K34/About!$A$33*1000</f>
+        <f>K34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="L88" s="33">
-        <f>L34/About!$A$33*1000</f>
+        <f>L34/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="M88" s="33">
-        <f>M34/About!$A$33*1000</f>
+        <f>M34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="N88" s="33">
-        <f>N34/About!$A$33*1000</f>
+        <f>N34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="O88" s="33">
-        <f>O34/About!$A$33*1000</f>
+        <f>O34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="P88" s="33">
-        <f>P34/About!$A$33*1000</f>
+        <f>P34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Q88" s="33">
-        <f>Q34/About!$A$33*1000</f>
+        <f>Q34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="R88" s="33">
-        <f>R34/About!$A$33*1000</f>
+        <f>R34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="S88" s="33">
-        <f>S34/About!$A$33*1000</f>
+        <f>S34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="T88" s="33">
-        <f>T34/About!$A$33*1000</f>
+        <f>T34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="U88" s="33">
-        <f>U34/About!$A$33*1000</f>
+        <f>U34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="V88" s="33">
-        <f>V34/About!$A$33*1000</f>
+        <f>V34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="W88" s="33">
-        <f>W34/About!$A$33*1000</f>
+        <f>W34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="X88" s="33">
-        <f>X34/About!$A$33*1000</f>
+        <f>X34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Y88" s="33">
-        <f>Y34/About!$A$33*1000</f>
+        <f>Y34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Z88" s="33">
-        <f>Z34/About!$A$33*1000</f>
+        <f>Z34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AA88" s="33">
-        <f>AA34/About!$A$33*1000</f>
+        <f>AA34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AB88" s="33">
-        <f>AB34/About!$A$33*1000</f>
+        <f>AB34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AC88" s="33">
-        <f>AC34/About!$A$33*1000</f>
+        <f>AC34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AD88" s="33">
-        <f>AD34/About!$A$33*1000</f>
+        <f>AD34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AE88" s="33">
-        <f>AE34/About!$A$33*1000</f>
+        <f>AE34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AF88" s="33">
-        <f>AF34/About!$A$33*1000</f>
+        <f>AF34/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
     </row>
@@ -37067,127 +37220,127 @@
         <v>24</v>
       </c>
       <c r="B89" s="33">
-        <f>B35/About!$A$33*1000</f>
+        <f>B35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="C89" s="33">
-        <f>C35/About!$A$33*1000</f>
+        <f>C35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="D89" s="33">
-        <f>D35/About!$A$33*1000</f>
+        <f>D35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="E89" s="33">
-        <f>E35/About!$A$33*1000</f>
+        <f>E35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="F89" s="33">
-        <f>F35/About!$A$33*1000</f>
+        <f>F35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="G89" s="33">
-        <f>G35/About!$A$33*1000</f>
+        <f>G35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="H89" s="33">
-        <f>H35/About!$A$33*1000</f>
+        <f>H35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="I89" s="33">
-        <f>I35/About!$A$33*1000</f>
+        <f>I35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="J89" s="33">
-        <f>J35/About!$A$33*1000</f>
+        <f>J35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="K89" s="33">
-        <f>K35/About!$A$33*1000</f>
+        <f>K35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="L89" s="33">
-        <f>L35/About!$A$33*1000</f>
+        <f>L35/About!$A$37*1000</f>
         <v>40165.141113653706</v>
       </c>
       <c r="M89" s="33">
-        <f>M35/About!$A$33*1000</f>
+        <f>M35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="N89" s="33">
-        <f>N35/About!$A$33*1000</f>
+        <f>N35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="O89" s="33">
-        <f>O35/About!$A$33*1000</f>
+        <f>O35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="P89" s="33">
-        <f>P35/About!$A$33*1000</f>
+        <f>P35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Q89" s="33">
-        <f>Q35/About!$A$33*1000</f>
+        <f>Q35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="R89" s="33">
-        <f>R35/About!$A$33*1000</f>
+        <f>R35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="S89" s="33">
-        <f>S35/About!$A$33*1000</f>
+        <f>S35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="T89" s="33">
-        <f>T35/About!$A$33*1000</f>
+        <f>T35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="U89" s="33">
-        <f>U35/About!$A$33*1000</f>
+        <f>U35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="V89" s="33">
-        <f>V35/About!$A$33*1000</f>
+        <f>V35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="W89" s="33">
-        <f>W35/About!$A$33*1000</f>
+        <f>W35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="X89" s="33">
-        <f>X35/About!$A$33*1000</f>
+        <f>X35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Y89" s="33">
-        <f>Y35/About!$A$33*1000</f>
+        <f>Y35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="Z89" s="33">
-        <f>Z35/About!$A$33*1000</f>
+        <f>Z35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AA89" s="33">
-        <f>AA35/About!$A$33*1000</f>
+        <f>AA35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AB89" s="33">
-        <f>AB35/About!$A$33*1000</f>
+        <f>AB35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AC89" s="33">
-        <f>AC35/About!$A$33*1000</f>
+        <f>AC35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AD89" s="33">
-        <f>AD35/About!$A$33*1000</f>
+        <f>AD35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AE89" s="33">
-        <f>AE35/About!$A$33*1000</f>
+        <f>AE35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
       <c r="AF89" s="33">
-        <f>AF35/About!$A$33*1000</f>
+        <f>AF35/About!$A$37*1000</f>
         <v>40165.141113653699</v>
       </c>
     </row>
@@ -37196,127 +37349,127 @@
         <v>25</v>
       </c>
       <c r="B90" s="33">
-        <f>B36/About!$A$33*1000</f>
+        <f>B36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="C90" s="33">
-        <f>C36/About!$A$33*1000</f>
+        <f>C36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="D90" s="33">
-        <f>D36/About!$A$33*1000</f>
+        <f>D36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="E90" s="33">
-        <f>E36/About!$A$33*1000</f>
+        <f>E36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="F90" s="33">
-        <f>F36/About!$A$33*1000</f>
+        <f>F36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="G90" s="33">
-        <f>G36/About!$A$33*1000</f>
+        <f>G36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="H90" s="33">
-        <f>H36/About!$A$33*1000</f>
+        <f>H36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="I90" s="33">
-        <f>I36/About!$A$33*1000</f>
+        <f>I36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="J90" s="33">
-        <f>J36/About!$A$33*1000</f>
+        <f>J36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="K90" s="33">
-        <f>K36/About!$A$33*1000</f>
+        <f>K36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="L90" s="33">
-        <f>L36/About!$A$33*1000</f>
+        <f>L36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="M90" s="33">
-        <f>M36/About!$A$33*1000</f>
+        <f>M36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="N90" s="33">
-        <f>N36/About!$A$33*1000</f>
+        <f>N36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="O90" s="33">
-        <f>O36/About!$A$33*1000</f>
+        <f>O36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="P90" s="33">
-        <f>P36/About!$A$33*1000</f>
+        <f>P36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="Q90" s="33">
-        <f>Q36/About!$A$33*1000</f>
+        <f>Q36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="R90" s="33">
-        <f>R36/About!$A$33*1000</f>
+        <f>R36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="S90" s="33">
-        <f>S36/About!$A$33*1000</f>
+        <f>S36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="T90" s="33">
-        <f>T36/About!$A$33*1000</f>
+        <f>T36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="U90" s="33">
-        <f>U36/About!$A$33*1000</f>
+        <f>U36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="V90" s="33">
-        <f>V36/About!$A$33*1000</f>
+        <f>V36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="W90" s="33">
-        <f>W36/About!$A$33*1000</f>
+        <f>W36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="X90" s="33">
-        <f>X36/About!$A$33*1000</f>
+        <f>X36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="Y90" s="33">
-        <f>Y36/About!$A$33*1000</f>
+        <f>Y36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="Z90" s="33">
-        <f>Z36/About!$A$33*1000</f>
+        <f>Z36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AA90" s="33">
-        <f>AA36/About!$A$33*1000</f>
+        <f>AA36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AB90" s="33">
-        <f>AB36/About!$A$33*1000</f>
+        <f>AB36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AC90" s="33">
-        <f>AC36/About!$A$33*1000</f>
+        <f>AC36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AD90" s="33">
-        <f>AD36/About!$A$33*1000</f>
+        <f>AD36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AE90" s="33">
-        <f>AE36/About!$A$33*1000</f>
+        <f>AE36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
       <c r="AF90" s="33">
-        <f>AF36/About!$A$33*1000</f>
+        <f>AF36/About!$A$37*1000</f>
         <v>101703.53419781337</v>
       </c>
     </row>
@@ -37437,127 +37590,127 @@
         <v>19</v>
       </c>
       <c r="B93" s="33">
-        <f>B39/About!$A$33</f>
+        <f>B39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="C93" s="33">
-        <f>C39/About!$A$33</f>
+        <f>C39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="D93" s="33">
-        <f>D39/About!$A$33</f>
+        <f>D39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="E93" s="33">
-        <f>E39/About!$A$33</f>
+        <f>E39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="F93" s="33">
-        <f>F39/About!$A$33</f>
+        <f>F39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="G93" s="33">
-        <f>G39/About!$A$33</f>
+        <f>G39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="H93" s="33">
-        <f>H39/About!$A$33</f>
+        <f>H39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="I93" s="33">
-        <f>I39/About!$A$33</f>
+        <f>I39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="J93" s="33">
-        <f>J39/About!$A$33</f>
+        <f>J39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="K93" s="33">
-        <f>K39/About!$A$33</f>
+        <f>K39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="L93" s="33">
-        <f>L39/About!$A$33</f>
+        <f>L39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="M93" s="33">
-        <f>M39/About!$A$33</f>
+        <f>M39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="N93" s="33">
-        <f>N39/About!$A$33</f>
+        <f>N39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="O93" s="33">
-        <f>O39/About!$A$33</f>
+        <f>O39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="P93" s="33">
-        <f>P39/About!$A$33</f>
+        <f>P39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Q93" s="33">
-        <f>Q39/About!$A$33</f>
+        <f>Q39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="R93" s="33">
-        <f>R39/About!$A$33</f>
+        <f>R39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="S93" s="33">
-        <f>S39/About!$A$33</f>
+        <f>S39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="T93" s="33">
-        <f>T39/About!$A$33</f>
+        <f>T39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="U93" s="33">
-        <f>U39/About!$A$33</f>
+        <f>U39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="V93" s="33">
-        <f>V39/About!$A$33</f>
+        <f>V39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="W93" s="33">
-        <f>W39/About!$A$33</f>
+        <f>W39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="X93" s="33">
-        <f>X39/About!$A$33</f>
+        <f>X39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Y93" s="33">
-        <f>Y39/About!$A$33</f>
+        <f>Y39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Z93" s="33">
-        <f>Z39/About!$A$33</f>
+        <f>Z39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AA93" s="33">
-        <f>AA39/About!$A$33</f>
+        <f>AA39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AB93" s="33">
-        <f>AB39/About!$A$33</f>
+        <f>AB39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AC93" s="33">
-        <f>AC39/About!$A$33</f>
+        <f>AC39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AD93" s="33">
-        <f>AD39/About!$A$33</f>
+        <f>AD39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AE93" s="33">
-        <f>AE39/About!$A$33</f>
+        <f>AE39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AF93" s="33">
-        <f>AF39/About!$A$33</f>
+        <f>AF39/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
     </row>
@@ -37566,127 +37719,127 @@
         <v>14</v>
       </c>
       <c r="B94" s="33">
-        <f>B40/About!$A$33</f>
+        <f>B40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="C94" s="33">
-        <f>C40/About!$A$33</f>
+        <f>C40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="D94" s="33">
-        <f>D40/About!$A$33</f>
+        <f>D40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="E94" s="33">
-        <f>E40/About!$A$33</f>
+        <f>E40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="F94" s="33">
-        <f>F40/About!$A$33</f>
+        <f>F40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="G94" s="33">
-        <f>G40/About!$A$33</f>
+        <f>G40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="H94" s="33">
-        <f>H40/About!$A$33</f>
+        <f>H40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="I94" s="33">
-        <f>I40/About!$A$33</f>
+        <f>I40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="J94" s="33">
-        <f>J40/About!$A$33</f>
+        <f>J40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="K94" s="33">
-        <f>K40/About!$A$33</f>
+        <f>K40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="L94" s="33">
-        <f>L40/About!$A$33</f>
+        <f>L40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="M94" s="33">
-        <f>M40/About!$A$33</f>
+        <f>M40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="N94" s="33">
-        <f>N40/About!$A$33</f>
+        <f>N40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="O94" s="33">
-        <f>O40/About!$A$33</f>
+        <f>O40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="P94" s="33">
-        <f>P40/About!$A$33</f>
+        <f>P40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Q94" s="33">
-        <f>Q40/About!$A$33</f>
+        <f>Q40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="R94" s="33">
-        <f>R40/About!$A$33</f>
+        <f>R40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="S94" s="33">
-        <f>S40/About!$A$33</f>
+        <f>S40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="T94" s="33">
-        <f>T40/About!$A$33</f>
+        <f>T40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="U94" s="33">
-        <f>U40/About!$A$33</f>
+        <f>U40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="V94" s="33">
-        <f>V40/About!$A$33</f>
+        <f>V40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="W94" s="33">
-        <f>W40/About!$A$33</f>
+        <f>W40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="X94" s="33">
-        <f>X40/About!$A$33</f>
+        <f>X40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Y94" s="33">
-        <f>Y40/About!$A$33</f>
+        <f>Y40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Z94" s="33">
-        <f>Z40/About!$A$33</f>
+        <f>Z40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AA94" s="33">
-        <f>AA40/About!$A$33</f>
+        <f>AA40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AB94" s="33">
-        <f>AB40/About!$A$33</f>
+        <f>AB40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AC94" s="33">
-        <f>AC40/About!$A$33</f>
+        <f>AC40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AD94" s="33">
-        <f>AD40/About!$A$33</f>
+        <f>AD40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AE94" s="33">
-        <f>AE40/About!$A$33</f>
+        <f>AE40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AF94" s="33">
-        <f>AF40/About!$A$33</f>
+        <f>AF40/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
     </row>
@@ -37695,127 +37848,127 @@
         <v>7</v>
       </c>
       <c r="B95" s="33">
-        <f>B41/About!$A$33</f>
+        <f>B41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="C95" s="33">
-        <f>C41/About!$A$33</f>
+        <f>C41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="D95" s="33">
-        <f>D41/About!$A$33</f>
+        <f>D41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="E95" s="33">
-        <f>E41/About!$A$33</f>
+        <f>E41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="F95" s="33">
-        <f>F41/About!$A$33</f>
+        <f>F41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="G95" s="33">
-        <f>G41/About!$A$33</f>
+        <f>G41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="H95" s="33">
-        <f>H41/About!$A$33</f>
+        <f>H41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="I95" s="33">
-        <f>I41/About!$A$33</f>
+        <f>I41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="J95" s="33">
-        <f>J41/About!$A$33</f>
+        <f>J41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="K95" s="33">
-        <f>K41/About!$A$33</f>
+        <f>K41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="L95" s="33">
-        <f>L41/About!$A$33</f>
+        <f>L41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="M95" s="33">
-        <f>M41/About!$A$33</f>
+        <f>M41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="N95" s="33">
-        <f>N41/About!$A$33</f>
+        <f>N41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="O95" s="33">
-        <f>O41/About!$A$33</f>
+        <f>O41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="P95" s="33">
-        <f>P41/About!$A$33</f>
+        <f>P41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="Q95" s="33">
-        <f>Q41/About!$A$33</f>
+        <f>Q41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="R95" s="33">
-        <f>R41/About!$A$33</f>
+        <f>R41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="S95" s="33">
-        <f>S41/About!$A$33</f>
+        <f>S41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="T95" s="33">
-        <f>T41/About!$A$33</f>
+        <f>T41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="U95" s="33">
-        <f>U41/About!$A$33</f>
+        <f>U41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="V95" s="33">
-        <f>V41/About!$A$33</f>
+        <f>V41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="W95" s="33">
-        <f>W41/About!$A$33</f>
+        <f>W41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="X95" s="33">
-        <f>X41/About!$A$33</f>
+        <f>X41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="Y95" s="33">
-        <f>Y41/About!$A$33</f>
+        <f>Y41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="Z95" s="33">
-        <f>Z41/About!$A$33</f>
+        <f>Z41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AA95" s="33">
-        <f>AA41/About!$A$33</f>
+        <f>AA41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AB95" s="33">
-        <f>AB41/About!$A$33</f>
+        <f>AB41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AC95" s="33">
-        <f>AC41/About!$A$33</f>
+        <f>AC41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AD95" s="33">
-        <f>AD41/About!$A$33</f>
+        <f>AD41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AE95" s="33">
-        <f>AE41/About!$A$33</f>
+        <f>AE41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
       <c r="AF95" s="33">
-        <f>AF41/About!$A$33</f>
+        <f>AF41/About!$A$37</f>
         <v>1.6865836087804049</v>
       </c>
     </row>
@@ -37824,127 +37977,127 @@
         <v>8</v>
       </c>
       <c r="B96" s="33">
-        <f>B42/About!$A$33</f>
+        <f>B42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="C96" s="33">
-        <f>C42/About!$A$33</f>
+        <f>C42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="D96" s="33">
-        <f>D42/About!$A$33</f>
+        <f>D42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="E96" s="33">
-        <f>E42/About!$A$33</f>
+        <f>E42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="F96" s="33">
-        <f>F42/About!$A$33</f>
+        <f>F42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="G96" s="33">
-        <f>G42/About!$A$33</f>
+        <f>G42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="H96" s="33">
-        <f>H42/About!$A$33</f>
+        <f>H42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="I96" s="33">
-        <f>I42/About!$A$33</f>
+        <f>I42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="J96" s="33">
-        <f>J42/About!$A$33</f>
+        <f>J42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="K96" s="33">
-        <f>K42/About!$A$33</f>
+        <f>K42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="L96" s="33">
-        <f>L42/About!$A$33</f>
+        <f>L42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="M96" s="33">
-        <f>M42/About!$A$33</f>
+        <f>M42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="N96" s="33">
-        <f>N42/About!$A$33</f>
+        <f>N42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="O96" s="33">
-        <f>O42/About!$A$33</f>
+        <f>O42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="P96" s="33">
-        <f>P42/About!$A$33</f>
+        <f>P42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="Q96" s="33">
-        <f>Q42/About!$A$33</f>
+        <f>Q42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="R96" s="33">
-        <f>R42/About!$A$33</f>
+        <f>R42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="S96" s="33">
-        <f>S42/About!$A$33</f>
+        <f>S42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="T96" s="33">
-        <f>T42/About!$A$33</f>
+        <f>T42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="U96" s="33">
-        <f>U42/About!$A$33</f>
+        <f>U42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="V96" s="33">
-        <f>V42/About!$A$33</f>
+        <f>V42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="W96" s="33">
-        <f>W42/About!$A$33</f>
+        <f>W42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="X96" s="33">
-        <f>X42/About!$A$33</f>
+        <f>X42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="Y96" s="33">
-        <f>Y42/About!$A$33</f>
+        <f>Y42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="Z96" s="33">
-        <f>Z42/About!$A$33</f>
+        <f>Z42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AA96" s="33">
-        <f>AA42/About!$A$33</f>
+        <f>AA42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AB96" s="33">
-        <f>AB42/About!$A$33</f>
+        <f>AB42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AC96" s="33">
-        <f>AC42/About!$A$33</f>
+        <f>AC42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AD96" s="33">
-        <f>AD42/About!$A$33</f>
+        <f>AD42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AE96" s="33">
-        <f>AE42/About!$A$33</f>
+        <f>AE42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
       <c r="AF96" s="33">
-        <f>AF42/About!$A$33</f>
+        <f>AF42/About!$A$37</f>
         <v>0.16950589032968894</v>
       </c>
     </row>
@@ -37953,127 +38106,127 @@
         <v>21</v>
       </c>
       <c r="B97" s="33">
-        <f>B43/About!$A$33</f>
+        <f>B43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="C97" s="33">
-        <f>C43/About!$A$33</f>
+        <f>C43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="D97" s="33">
-        <f>D43/About!$A$33</f>
+        <f>D43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="E97" s="33">
-        <f>E43/About!$A$33</f>
+        <f>E43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="F97" s="33">
-        <f>F43/About!$A$33</f>
+        <f>F43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="G97" s="33">
-        <f>G43/About!$A$33</f>
+        <f>G43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="H97" s="33">
-        <f>H43/About!$A$33</f>
+        <f>H43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="I97" s="33">
-        <f>I43/About!$A$33</f>
+        <f>I43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="J97" s="33">
-        <f>J43/About!$A$33</f>
+        <f>J43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="K97" s="33">
-        <f>K43/About!$A$33</f>
+        <f>K43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="L97" s="33">
-        <f>L43/About!$A$33</f>
+        <f>L43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="M97" s="33">
-        <f>M43/About!$A$33</f>
+        <f>M43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="N97" s="33">
-        <f>N43/About!$A$33</f>
+        <f>N43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="O97" s="33">
-        <f>O43/About!$A$33</f>
+        <f>O43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="P97" s="33">
-        <f>P43/About!$A$33</f>
+        <f>P43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Q97" s="33">
-        <f>Q43/About!$A$33</f>
+        <f>Q43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="R97" s="33">
-        <f>R43/About!$A$33</f>
+        <f>R43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="S97" s="33">
-        <f>S43/About!$A$33</f>
+        <f>S43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="T97" s="33">
-        <f>T43/About!$A$33</f>
+        <f>T43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="U97" s="33">
-        <f>U43/About!$A$33</f>
+        <f>U43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="V97" s="33">
-        <f>V43/About!$A$33</f>
+        <f>V43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="W97" s="33">
-        <f>W43/About!$A$33</f>
+        <f>W43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="X97" s="33">
-        <f>X43/About!$A$33</f>
+        <f>X43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Y97" s="33">
-        <f>Y43/About!$A$33</f>
+        <f>Y43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Z97" s="33">
-        <f>Z43/About!$A$33</f>
+        <f>Z43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AA97" s="33">
-        <f>AA43/About!$A$33</f>
+        <f>AA43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AB97" s="33">
-        <f>AB43/About!$A$33</f>
+        <f>AB43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AC97" s="33">
-        <f>AC43/About!$A$33</f>
+        <f>AC43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AD97" s="33">
-        <f>AD43/About!$A$33</f>
+        <f>AD43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AE97" s="33">
-        <f>AE43/About!$A$33</f>
+        <f>AE43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AF97" s="33">
-        <f>AF43/About!$A$33</f>
+        <f>AF43/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
     </row>
@@ -38082,127 +38235,127 @@
         <v>9</v>
       </c>
       <c r="B98" s="33">
-        <f>B44/About!$A$33</f>
+        <f>B44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="C98" s="33">
-        <f>C44/About!$A$33</f>
+        <f>C44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="D98" s="33">
-        <f>D44/About!$A$33</f>
+        <f>D44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="E98" s="33">
-        <f>E44/About!$A$33</f>
+        <f>E44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="F98" s="33">
-        <f>F44/About!$A$33</f>
+        <f>F44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="G98" s="33">
-        <f>G44/About!$A$33</f>
+        <f>G44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="H98" s="33">
-        <f>H44/About!$A$33</f>
+        <f>H44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="I98" s="33">
-        <f>I44/About!$A$33</f>
+        <f>I44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="J98" s="33">
-        <f>J44/About!$A$33</f>
+        <f>J44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="K98" s="33">
-        <f>K44/About!$A$33</f>
+        <f>K44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="L98" s="33">
-        <f>L44/About!$A$33</f>
+        <f>L44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="M98" s="33">
-        <f>M44/About!$A$33</f>
+        <f>M44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="N98" s="33">
-        <f>N44/About!$A$33</f>
+        <f>N44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="O98" s="33">
-        <f>O44/About!$A$33</f>
+        <f>O44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="P98" s="33">
-        <f>P44/About!$A$33</f>
+        <f>P44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Q98" s="33">
-        <f>Q44/About!$A$33</f>
+        <f>Q44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="R98" s="33">
-        <f>R44/About!$A$33</f>
+        <f>R44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="S98" s="33">
-        <f>S44/About!$A$33</f>
+        <f>S44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="T98" s="33">
-        <f>T44/About!$A$33</f>
+        <f>T44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="U98" s="33">
-        <f>U44/About!$A$33</f>
+        <f>U44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="V98" s="33">
-        <f>V44/About!$A$33</f>
+        <f>V44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="W98" s="33">
-        <f>W44/About!$A$33</f>
+        <f>W44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="X98" s="33">
-        <f>X44/About!$A$33</f>
+        <f>X44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Y98" s="33">
-        <f>Y44/About!$A$33</f>
+        <f>Y44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Z98" s="33">
-        <f>Z44/About!$A$33</f>
+        <f>Z44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AA98" s="33">
-        <f>AA44/About!$A$33</f>
+        <f>AA44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AB98" s="33">
-        <f>AB44/About!$A$33</f>
+        <f>AB44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AC98" s="33">
-        <f>AC44/About!$A$33</f>
+        <f>AC44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AD98" s="33">
-        <f>AD44/About!$A$33</f>
+        <f>AD44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AE98" s="33">
-        <f>AE44/About!$A$33</f>
+        <f>AE44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AF98" s="33">
-        <f>AF44/About!$A$33</f>
+        <f>AF44/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
     </row>
@@ -38211,127 +38364,127 @@
         <v>10</v>
       </c>
       <c r="B99" s="33">
-        <f>B45/About!$A$33</f>
+        <f>B45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="C99" s="33">
-        <f>C45/About!$A$33</f>
+        <f>C45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="D99" s="33">
-        <f>D45/About!$A$33</f>
+        <f>D45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="E99" s="33">
-        <f>E45/About!$A$33</f>
+        <f>E45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="F99" s="33">
-        <f>F45/About!$A$33</f>
+        <f>F45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="G99" s="33">
-        <f>G45/About!$A$33</f>
+        <f>G45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="H99" s="33">
-        <f>H45/About!$A$33</f>
+        <f>H45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="I99" s="33">
-        <f>I45/About!$A$33</f>
+        <f>I45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="J99" s="33">
-        <f>J45/About!$A$33</f>
+        <f>J45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="K99" s="33">
-        <f>K45/About!$A$33</f>
+        <f>K45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="L99" s="33">
-        <f>L45/About!$A$33</f>
+        <f>L45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="M99" s="33">
-        <f>M45/About!$A$33</f>
+        <f>M45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="N99" s="33">
-        <f>N45/About!$A$33</f>
+        <f>N45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="O99" s="33">
-        <f>O45/About!$A$33</f>
+        <f>O45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="P99" s="33">
-        <f>P45/About!$A$33</f>
+        <f>P45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Q99" s="33">
-        <f>Q45/About!$A$33</f>
+        <f>Q45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="R99" s="33">
-        <f>R45/About!$A$33</f>
+        <f>R45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="S99" s="33">
-        <f>S45/About!$A$33</f>
+        <f>S45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="T99" s="33">
-        <f>T45/About!$A$33</f>
+        <f>T45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="U99" s="33">
-        <f>U45/About!$A$33</f>
+        <f>U45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="V99" s="33">
-        <f>V45/About!$A$33</f>
+        <f>V45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="W99" s="33">
-        <f>W45/About!$A$33</f>
+        <f>W45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="X99" s="33">
-        <f>X45/About!$A$33</f>
+        <f>X45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Y99" s="33">
-        <f>Y45/About!$A$33</f>
+        <f>Y45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Z99" s="33">
-        <f>Z45/About!$A$33</f>
+        <f>Z45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AA99" s="33">
-        <f>AA45/About!$A$33</f>
+        <f>AA45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AB99" s="33">
-        <f>AB45/About!$A$33</f>
+        <f>AB45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AC99" s="33">
-        <f>AC45/About!$A$33</f>
+        <f>AC45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AD99" s="33">
-        <f>AD45/About!$A$33</f>
+        <f>AD45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AE99" s="33">
-        <f>AE45/About!$A$33</f>
+        <f>AE45/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AF99" s="33">
-        <f>AF45/About!$A$33</f>
+        <f>AF45/About!$A$37</f>
         <v>0</v>
       </c>
     </row>
@@ -38340,127 +38493,127 @@
         <v>11</v>
       </c>
       <c r="B100" s="33">
-        <f>B46/About!$A$33</f>
+        <f>B46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="C100" s="33">
-        <f>C46/About!$A$33</f>
+        <f>C46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="D100" s="33">
-        <f>D46/About!$A$33</f>
+        <f>D46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="E100" s="33">
-        <f>E46/About!$A$33</f>
+        <f>E46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="F100" s="33">
-        <f>F46/About!$A$33</f>
+        <f>F46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="G100" s="33">
-        <f>G46/About!$A$33</f>
+        <f>G46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="H100" s="33">
-        <f>H46/About!$A$33</f>
+        <f>H46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="I100" s="33">
-        <f>I46/About!$A$33</f>
+        <f>I46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="J100" s="33">
-        <f>J46/About!$A$33</f>
+        <f>J46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="K100" s="33">
-        <f>K46/About!$A$33</f>
+        <f>K46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="L100" s="33">
-        <f>L46/About!$A$33</f>
+        <f>L46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="M100" s="33">
-        <f>M46/About!$A$33</f>
+        <f>M46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="N100" s="33">
-        <f>N46/About!$A$33</f>
+        <f>N46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="O100" s="33">
-        <f>O46/About!$A$33</f>
+        <f>O46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="P100" s="33">
-        <f>P46/About!$A$33</f>
+        <f>P46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Q100" s="33">
-        <f>Q46/About!$A$33</f>
+        <f>Q46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="R100" s="33">
-        <f>R46/About!$A$33</f>
+        <f>R46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="S100" s="33">
-        <f>S46/About!$A$33</f>
+        <f>S46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="T100" s="33">
-        <f>T46/About!$A$33</f>
+        <f>T46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="U100" s="33">
-        <f>U46/About!$A$33</f>
+        <f>U46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="V100" s="33">
-        <f>V46/About!$A$33</f>
+        <f>V46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="W100" s="33">
-        <f>W46/About!$A$33</f>
+        <f>W46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="X100" s="33">
-        <f>X46/About!$A$33</f>
+        <f>X46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Y100" s="33">
-        <f>Y46/About!$A$33</f>
+        <f>Y46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Z100" s="33">
-        <f>Z46/About!$A$33</f>
+        <f>Z46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AA100" s="33">
-        <f>AA46/About!$A$33</f>
+        <f>AA46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AB100" s="33">
-        <f>AB46/About!$A$33</f>
+        <f>AB46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AC100" s="33">
-        <f>AC46/About!$A$33</f>
+        <f>AC46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AD100" s="33">
-        <f>AD46/About!$A$33</f>
+        <f>AD46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AE100" s="33">
-        <f>AE46/About!$A$33</f>
+        <f>AE46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AF100" s="33">
-        <f>AF46/About!$A$33</f>
+        <f>AF46/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
     </row>
@@ -38469,127 +38622,127 @@
         <v>15</v>
       </c>
       <c r="B101" s="33">
-        <f>B47/About!$A$33</f>
+        <f>B47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="C101" s="33">
-        <f>C47/About!$A$33</f>
+        <f>C47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="D101" s="33">
-        <f>D47/About!$A$33</f>
+        <f>D47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="E101" s="33">
-        <f>E47/About!$A$33</f>
+        <f>E47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="F101" s="33">
-        <f>F47/About!$A$33</f>
+        <f>F47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="G101" s="33">
-        <f>G47/About!$A$33</f>
+        <f>G47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="H101" s="33">
-        <f>H47/About!$A$33</f>
+        <f>H47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="I101" s="33">
-        <f>I47/About!$A$33</f>
+        <f>I47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="J101" s="33">
-        <f>J47/About!$A$33</f>
+        <f>J47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="K101" s="33">
-        <f>K47/About!$A$33</f>
+        <f>K47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="L101" s="33">
-        <f>L47/About!$A$33</f>
+        <f>L47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="M101" s="33">
-        <f>M47/About!$A$33</f>
+        <f>M47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="N101" s="33">
-        <f>N47/About!$A$33</f>
+        <f>N47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="O101" s="33">
-        <f>O47/About!$A$33</f>
+        <f>O47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="P101" s="33">
-        <f>P47/About!$A$33</f>
+        <f>P47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Q101" s="33">
-        <f>Q47/About!$A$33</f>
+        <f>Q47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="R101" s="33">
-        <f>R47/About!$A$33</f>
+        <f>R47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="S101" s="33">
-        <f>S47/About!$A$33</f>
+        <f>S47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="T101" s="33">
-        <f>T47/About!$A$33</f>
+        <f>T47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="U101" s="33">
-        <f>U47/About!$A$33</f>
+        <f>U47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="V101" s="33">
-        <f>V47/About!$A$33</f>
+        <f>V47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="W101" s="33">
-        <f>W47/About!$A$33</f>
+        <f>W47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="X101" s="33">
-        <f>X47/About!$A$33</f>
+        <f>X47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Y101" s="33">
-        <f>Y47/About!$A$33</f>
+        <f>Y47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Z101" s="33">
-        <f>Z47/About!$A$33</f>
+        <f>Z47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AA101" s="33">
-        <f>AA47/About!$A$33</f>
+        <f>AA47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AB101" s="33">
-        <f>AB47/About!$A$33</f>
+        <f>AB47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AC101" s="33">
-        <f>AC47/About!$A$33</f>
+        <f>AC47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AD101" s="33">
-        <f>AD47/About!$A$33</f>
+        <f>AD47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AE101" s="33">
-        <f>AE47/About!$A$33</f>
+        <f>AE47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AF101" s="33">
-        <f>AF47/About!$A$33</f>
+        <f>AF47/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
     </row>
@@ -38598,127 +38751,127 @@
         <v>16</v>
       </c>
       <c r="B102" s="33">
-        <f>B48/About!$A$33</f>
+        <f>B48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="C102" s="33">
-        <f>C48/About!$A$33</f>
+        <f>C48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="D102" s="33">
-        <f>D48/About!$A$33</f>
+        <f>D48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="E102" s="33">
-        <f>E48/About!$A$33</f>
+        <f>E48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="F102" s="33">
-        <f>F48/About!$A$33</f>
+        <f>F48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="G102" s="33">
-        <f>G48/About!$A$33</f>
+        <f>G48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="H102" s="33">
-        <f>H48/About!$A$33</f>
+        <f>H48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="I102" s="33">
-        <f>I48/About!$A$33</f>
+        <f>I48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="J102" s="33">
-        <f>J48/About!$A$33</f>
+        <f>J48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="K102" s="33">
-        <f>K48/About!$A$33</f>
+        <f>K48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="L102" s="33">
-        <f>L48/About!$A$33</f>
+        <f>L48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="M102" s="33">
-        <f>M48/About!$A$33</f>
+        <f>M48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="N102" s="33">
-        <f>N48/About!$A$33</f>
+        <f>N48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="O102" s="33">
-        <f>O48/About!$A$33</f>
+        <f>O48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="P102" s="33">
-        <f>P48/About!$A$33</f>
+        <f>P48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Q102" s="33">
-        <f>Q48/About!$A$33</f>
+        <f>Q48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="R102" s="33">
-        <f>R48/About!$A$33</f>
+        <f>R48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="S102" s="33">
-        <f>S48/About!$A$33</f>
+        <f>S48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="T102" s="33">
-        <f>T48/About!$A$33</f>
+        <f>T48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="U102" s="33">
-        <f>U48/About!$A$33</f>
+        <f>U48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="V102" s="33">
-        <f>V48/About!$A$33</f>
+        <f>V48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="W102" s="33">
-        <f>W48/About!$A$33</f>
+        <f>W48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="X102" s="33">
-        <f>X48/About!$A$33</f>
+        <f>X48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Y102" s="33">
-        <f>Y48/About!$A$33</f>
+        <f>Y48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Z102" s="33">
-        <f>Z48/About!$A$33</f>
+        <f>Z48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AA102" s="33">
-        <f>AA48/About!$A$33</f>
+        <f>AA48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AB102" s="33">
-        <f>AB48/About!$A$33</f>
+        <f>AB48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AC102" s="33">
-        <f>AC48/About!$A$33</f>
+        <f>AC48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AD102" s="33">
-        <f>AD48/About!$A$33</f>
+        <f>AD48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AE102" s="33">
-        <f>AE48/About!$A$33</f>
+        <f>AE48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AF102" s="33">
-        <f>AF48/About!$A$33</f>
+        <f>AF48/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
     </row>
@@ -38727,127 +38880,127 @@
         <v>17</v>
       </c>
       <c r="B103" s="33">
-        <f>B49/About!$A$33</f>
+        <f>B49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="C103" s="33">
-        <f>C49/About!$A$33</f>
+        <f>C49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="D103" s="33">
-        <f>D49/About!$A$33</f>
+        <f>D49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="E103" s="33">
-        <f>E49/About!$A$33</f>
+        <f>E49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="F103" s="33">
-        <f>F49/About!$A$33</f>
+        <f>F49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="G103" s="33">
-        <f>G49/About!$A$33</f>
+        <f>G49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="H103" s="33">
-        <f>H49/About!$A$33</f>
+        <f>H49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="I103" s="33">
-        <f>I49/About!$A$33</f>
+        <f>I49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="J103" s="33">
-        <f>J49/About!$A$33</f>
+        <f>J49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="K103" s="33">
-        <f>K49/About!$A$33</f>
+        <f>K49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="L103" s="33">
-        <f>L49/About!$A$33</f>
+        <f>L49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="M103" s="33">
-        <f>M49/About!$A$33</f>
+        <f>M49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="N103" s="33">
-        <f>N49/About!$A$33</f>
+        <f>N49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="O103" s="33">
-        <f>O49/About!$A$33</f>
+        <f>O49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="P103" s="33">
-        <f>P49/About!$A$33</f>
+        <f>P49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Q103" s="33">
-        <f>Q49/About!$A$33</f>
+        <f>Q49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="R103" s="33">
-        <f>R49/About!$A$33</f>
+        <f>R49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="S103" s="33">
-        <f>S49/About!$A$33</f>
+        <f>S49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="T103" s="33">
-        <f>T49/About!$A$33</f>
+        <f>T49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="U103" s="33">
-        <f>U49/About!$A$33</f>
+        <f>U49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="V103" s="33">
-        <f>V49/About!$A$33</f>
+        <f>V49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="W103" s="33">
-        <f>W49/About!$A$33</f>
+        <f>W49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="X103" s="33">
-        <f>X49/About!$A$33</f>
+        <f>X49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Y103" s="33">
-        <f>Y49/About!$A$33</f>
+        <f>Y49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="Z103" s="33">
-        <f>Z49/About!$A$33</f>
+        <f>Z49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AA103" s="33">
-        <f>AA49/About!$A$33</f>
+        <f>AA49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AB103" s="33">
-        <f>AB49/About!$A$33</f>
+        <f>AB49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AC103" s="33">
-        <f>AC49/About!$A$33</f>
+        <f>AC49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AD103" s="33">
-        <f>AD49/About!$A$33</f>
+        <f>AD49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AE103" s="33">
-        <f>AE49/About!$A$33</f>
+        <f>AE49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
       <c r="AF103" s="33">
-        <f>AF49/About!$A$33</f>
+        <f>AF49/About!$A$37</f>
         <v>0.54241884905500459</v>
       </c>
     </row>
@@ -38856,127 +39009,127 @@
         <v>22</v>
       </c>
       <c r="B104" s="33">
-        <f>B50/About!$A$33</f>
+        <f>B50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="C104" s="33">
-        <f>C50/About!$A$33</f>
+        <f>C50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="D104" s="33">
-        <f>D50/About!$A$33</f>
+        <f>D50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="E104" s="33">
-        <f>E50/About!$A$33</f>
+        <f>E50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="F104" s="33">
-        <f>F50/About!$A$33</f>
+        <f>F50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="G104" s="33">
-        <f>G50/About!$A$33</f>
+        <f>G50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="H104" s="33">
-        <f>H50/About!$A$33</f>
+        <f>H50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="I104" s="33">
-        <f>I50/About!$A$33</f>
+        <f>I50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="J104" s="33">
-        <f>J50/About!$A$33</f>
+        <f>J50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="K104" s="33">
-        <f>K50/About!$A$33</f>
+        <f>K50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="L104" s="33">
-        <f>L50/About!$A$33</f>
+        <f>L50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="M104" s="33">
-        <f>M50/About!$A$33</f>
+        <f>M50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="N104" s="33">
-        <f>N50/About!$A$33</f>
+        <f>N50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="O104" s="33">
-        <f>O50/About!$A$33</f>
+        <f>O50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="P104" s="33">
-        <f>P50/About!$A$33</f>
+        <f>P50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Q104" s="33">
-        <f>Q50/About!$A$33</f>
+        <f>Q50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="R104" s="33">
-        <f>R50/About!$A$33</f>
+        <f>R50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="S104" s="33">
-        <f>S50/About!$A$33</f>
+        <f>S50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="T104" s="33">
-        <f>T50/About!$A$33</f>
+        <f>T50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="U104" s="33">
-        <f>U50/About!$A$33</f>
+        <f>U50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="V104" s="33">
-        <f>V50/About!$A$33</f>
+        <f>V50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="W104" s="33">
-        <f>W50/About!$A$33</f>
+        <f>W50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="X104" s="33">
-        <f>X50/About!$A$33</f>
+        <f>X50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Y104" s="33">
-        <f>Y50/About!$A$33</f>
+        <f>Y50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="Z104" s="33">
-        <f>Z50/About!$A$33</f>
+        <f>Z50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AA104" s="33">
-        <f>AA50/About!$A$33</f>
+        <f>AA50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AB104" s="33">
-        <f>AB50/About!$A$33</f>
+        <f>AB50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AC104" s="33">
-        <f>AC50/About!$A$33</f>
+        <f>AC50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AD104" s="33">
-        <f>AD50/About!$A$33</f>
+        <f>AD50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AE104" s="33">
-        <f>AE50/About!$A$33</f>
+        <f>AE50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
       <c r="AF104" s="33">
-        <f>AF50/About!$A$33</f>
+        <f>AF50/About!$A$37</f>
         <v>1.0000847529451649</v>
       </c>
     </row>
@@ -38985,127 +39138,127 @@
         <v>20</v>
       </c>
       <c r="B105" s="33">
-        <f>B51/About!$A$33</f>
+        <f>B51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="C105" s="33">
-        <f>C51/About!$A$33</f>
+        <f>C51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="D105" s="33">
-        <f>D51/About!$A$33</f>
+        <f>D51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="E105" s="33">
-        <f>E51/About!$A$33</f>
+        <f>E51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="F105" s="33">
-        <f>F51/About!$A$33</f>
+        <f>F51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="G105" s="33">
-        <f>G51/About!$A$33</f>
+        <f>G51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="H105" s="33">
-        <f>H51/About!$A$33</f>
+        <f>H51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="I105" s="33">
-        <f>I51/About!$A$33</f>
+        <f>I51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="J105" s="33">
-        <f>J51/About!$A$33</f>
+        <f>J51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="K105" s="33">
-        <f>K51/About!$A$33</f>
+        <f>K51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="L105" s="33">
-        <f>L51/About!$A$33</f>
+        <f>L51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="M105" s="33">
-        <f>M51/About!$A$33</f>
+        <f>M51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="N105" s="33">
-        <f>N51/About!$A$33</f>
+        <f>N51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="O105" s="33">
-        <f>O51/About!$A$33</f>
+        <f>O51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="P105" s="33">
-        <f>P51/About!$A$33</f>
+        <f>P51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Q105" s="33">
-        <f>Q51/About!$A$33</f>
+        <f>Q51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="R105" s="33">
-        <f>R51/About!$A$33</f>
+        <f>R51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="S105" s="33">
-        <f>S51/About!$A$33</f>
+        <f>S51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="T105" s="33">
-        <f>T51/About!$A$33</f>
+        <f>T51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="U105" s="33">
-        <f>U51/About!$A$33</f>
+        <f>U51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="V105" s="33">
-        <f>V51/About!$A$33</f>
+        <f>V51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="W105" s="33">
-        <f>W51/About!$A$33</f>
+        <f>W51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="X105" s="33">
-        <f>X51/About!$A$33</f>
+        <f>X51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Y105" s="33">
-        <f>Y51/About!$A$33</f>
+        <f>Y51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="Z105" s="33">
-        <f>Z51/About!$A$33</f>
+        <f>Z51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AA105" s="33">
-        <f>AA51/About!$A$33</f>
+        <f>AA51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AB105" s="33">
-        <f>AB51/About!$A$33</f>
+        <f>AB51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AC105" s="33">
-        <f>AC51/About!$A$33</f>
+        <f>AC51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AD105" s="33">
-        <f>AD51/About!$A$33</f>
+        <f>AD51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AE105" s="33">
-        <f>AE51/About!$A$33</f>
+        <f>AE51/About!$A$37</f>
         <v>0</v>
       </c>
       <c r="AF105" s="33">
-        <f>AF51/About!$A$33</f>
+        <f>AF51/About!$A$37</f>
         <v>0</v>
       </c>
     </row>
@@ -39114,127 +39267,127 @@
         <v>23</v>
       </c>
       <c r="B106" s="33">
-        <f>B52/About!$A$33</f>
+        <f>B52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="C106" s="33">
-        <f>C52/About!$A$33</f>
+        <f>C52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="D106" s="33">
-        <f>D52/About!$A$33</f>
+        <f>D52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="E106" s="33">
-        <f>E52/About!$A$33</f>
+        <f>E52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="F106" s="33">
-        <f>F52/About!$A$33</f>
+        <f>F52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="G106" s="33">
-        <f>G52/About!$A$33</f>
+        <f>G52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="H106" s="33">
-        <f>H52/About!$A$33</f>
+        <f>H52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="I106" s="33">
-        <f>I52/About!$A$33</f>
+        <f>I52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="J106" s="33">
-        <f>J52/About!$A$33</f>
+        <f>J52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="K106" s="33">
-        <f>K52/About!$A$33</f>
+        <f>K52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="L106" s="33">
-        <f>L52/About!$A$33</f>
+        <f>L52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="M106" s="33">
-        <f>M52/About!$A$33</f>
+        <f>M52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="N106" s="33">
-        <f>N52/About!$A$33</f>
+        <f>N52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="O106" s="33">
-        <f>O52/About!$A$33</f>
+        <f>O52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="P106" s="33">
-        <f>P52/About!$A$33</f>
+        <f>P52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Q106" s="33">
-        <f>Q52/About!$A$33</f>
+        <f>Q52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="R106" s="33">
-        <f>R52/About!$A$33</f>
+        <f>R52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="S106" s="33">
-        <f>S52/About!$A$33</f>
+        <f>S52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="T106" s="33">
-        <f>T52/About!$A$33</f>
+        <f>T52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="U106" s="33">
-        <f>U52/About!$A$33</f>
+        <f>U52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="V106" s="33">
-        <f>V52/About!$A$33</f>
+        <f>V52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="W106" s="33">
-        <f>W52/About!$A$33</f>
+        <f>W52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="X106" s="33">
-        <f>X52/About!$A$33</f>
+        <f>X52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Y106" s="33">
-        <f>Y52/About!$A$33</f>
+        <f>Y52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Z106" s="33">
-        <f>Z52/About!$A$33</f>
+        <f>Z52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AA106" s="33">
-        <f>AA52/About!$A$33</f>
+        <f>AA52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AB106" s="33">
-        <f>AB52/About!$A$33</f>
+        <f>AB52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AC106" s="33">
-        <f>AC52/About!$A$33</f>
+        <f>AC52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AD106" s="33">
-        <f>AD52/About!$A$33</f>
+        <f>AD52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AE106" s="33">
-        <f>AE52/About!$A$33</f>
+        <f>AE52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AF106" s="33">
-        <f>AF52/About!$A$33</f>
+        <f>AF52/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
     </row>
@@ -39243,127 +39396,127 @@
         <v>24</v>
       </c>
       <c r="B107" s="33">
-        <f>B53/About!$A$33</f>
+        <f>B53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="C107" s="33">
-        <f>C53/About!$A$33</f>
+        <f>C53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="D107" s="33">
-        <f>D53/About!$A$33</f>
+        <f>D53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="E107" s="33">
-        <f>E53/About!$A$33</f>
+        <f>E53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="F107" s="33">
-        <f>F53/About!$A$33</f>
+        <f>F53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="G107" s="33">
-        <f>G53/About!$A$33</f>
+        <f>G53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="H107" s="33">
-        <f>H53/About!$A$33</f>
+        <f>H53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="I107" s="33">
-        <f>I53/About!$A$33</f>
+        <f>I53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="J107" s="33">
-        <f>J53/About!$A$33</f>
+        <f>J53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="K107" s="33">
-        <f>K53/About!$A$33</f>
+        <f>K53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="L107" s="33">
-        <f>L53/About!$A$33</f>
+        <f>L53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="M107" s="33">
-        <f>M53/About!$A$33</f>
+        <f>M53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="N107" s="33">
-        <f>N53/About!$A$33</f>
+        <f>N53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="O107" s="33">
-        <f>O53/About!$A$33</f>
+        <f>O53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="P107" s="33">
-        <f>P53/About!$A$33</f>
+        <f>P53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Q107" s="33">
-        <f>Q53/About!$A$33</f>
+        <f>Q53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="R107" s="33">
-        <f>R53/About!$A$33</f>
+        <f>R53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="S107" s="33">
-        <f>S53/About!$A$33</f>
+        <f>S53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="T107" s="33">
-        <f>T53/About!$A$33</f>
+        <f>T53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="U107" s="33">
-        <f>U53/About!$A$33</f>
+        <f>U53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="V107" s="33">
-        <f>V53/About!$A$33</f>
+        <f>V53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="W107" s="33">
-        <f>W53/About!$A$33</f>
+        <f>W53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="X107" s="33">
-        <f>X53/About!$A$33</f>
+        <f>X53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Y107" s="33">
-        <f>Y53/About!$A$33</f>
+        <f>Y53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="Z107" s="33">
-        <f>Z53/About!$A$33</f>
+        <f>Z53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AA107" s="33">
-        <f>AA53/About!$A$33</f>
+        <f>AA53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AB107" s="33">
-        <f>AB53/About!$A$33</f>
+        <f>AB53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AC107" s="33">
-        <f>AC53/About!$A$33</f>
+        <f>AC53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AD107" s="33">
-        <f>AD53/About!$A$33</f>
+        <f>AD53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AE107" s="33">
-        <f>AE53/About!$A$33</f>
+        <f>AE53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
       <c r="AF107" s="33">
-        <f>AF53/About!$A$33</f>
+        <f>AF53/About!$A$37</f>
         <v>0.12712941774726672</v>
       </c>
     </row>
@@ -39372,127 +39525,127 @@
         <v>25</v>
       </c>
       <c r="B108" s="33">
-        <f>B54/About!$A$33</f>
+        <f>B54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="C108" s="33">
-        <f>C54/About!$A$33</f>
+        <f>C54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="D108" s="33">
-        <f>D54/About!$A$33</f>
+        <f>D54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="E108" s="33">
-        <f>E54/About!$A$33</f>
+        <f>E54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="F108" s="33">
-        <f>F54/About!$A$33</f>
+        <f>F54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="G108" s="33">
-        <f>G54/About!$A$33</f>
+        <f>G54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="H108" s="33">
-        <f>H54/About!$A$33</f>
+        <f>H54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="I108" s="33">
-        <f>I54/About!$A$33</f>
+        <f>I54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="J108" s="33">
-        <f>J54/About!$A$33</f>
+        <f>J54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="K108" s="33">
-        <f>K54/About!$A$33</f>
+        <f>K54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="L108" s="33">
-        <f>L54/About!$A$33</f>
+        <f>L54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="M108" s="33">
-        <f>M54/About!$A$33</f>
+        <f>M54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="N108" s="33">
-        <f>N54/About!$A$33</f>
+        <f>N54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="O108" s="33">
-        <f>O54/About!$A$33</f>
+        <f>O54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="P108" s="33">
-        <f>P54/About!$A$33</f>
+        <f>P54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Q108" s="33">
-        <f>Q54/About!$A$33</f>
+        <f>Q54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="R108" s="33">
-        <f>R54/About!$A$33</f>
+        <f>R54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="S108" s="33">
-        <f>S54/About!$A$33</f>
+        <f>S54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="T108" s="33">
-        <f>T54/About!$A$33</f>
+        <f>T54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="U108" s="33">
-        <f>U54/About!$A$33</f>
+        <f>U54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="V108" s="33">
-        <f>V54/About!$A$33</f>
+        <f>V54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="W108" s="33">
-        <f>W54/About!$A$33</f>
+        <f>W54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="X108" s="33">
-        <f>X54/About!$A$33</f>
+        <f>X54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Y108" s="33">
-        <f>Y54/About!$A$33</f>
+        <f>Y54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="Z108" s="33">
-        <f>Z54/About!$A$33</f>
+        <f>Z54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AA108" s="33">
-        <f>AA54/About!$A$33</f>
+        <f>AA54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AB108" s="33">
-        <f>AB54/About!$A$33</f>
+        <f>AB54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AC108" s="33">
-        <f>AC54/About!$A$33</f>
+        <f>AC54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AD108" s="33">
-        <f>AD54/About!$A$33</f>
+        <f>AD54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AE108" s="33">
-        <f>AE54/About!$A$33</f>
+        <f>AE54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
       <c r="AF108" s="33">
-        <f>AF54/About!$A$33</f>
+        <f>AF54/About!$A$37</f>
         <v>8.4752945164844468E-2</v>
       </c>
     </row>
